--- a/Othoba.com Test Case.xlsx
+++ b/Othoba.com Test Case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study Videos\SQA\SQA Batch - 15\Test Case Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study Videos\SQA\SQA Batch - 15\Manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499240F-BD93-43CE-BD96-703E2BBA736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC3B7AC-169F-45B3-936B-3511B6B11786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="189">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -706,6 +706,9 @@
   </si>
   <si>
     <t>Date: 15 July 1996</t>
+  </si>
+  <si>
+    <t>Click here</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1869,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="33"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="386">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2753,76 +2756,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2839,42 +2798,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2884,17 +2856,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3411,9 +3417,9 @@
   </sheetPr>
   <dimension ref="A1:AD394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3449,10 +3455,10 @@
       <c r="J1" s="114"/>
       <c r="K1" s="98"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="348" t="s">
+      <c r="M1" s="330" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="349"/>
+      <c r="N1" s="331"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3719,13 +3725,13 @@
       <c r="A8" s="268" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="322" t="s">
+      <c r="B8" s="345" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="341" t="s">
+      <c r="C8" s="323" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="341" t="s">
+      <c r="D8" s="323" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="285" t="s">
@@ -3746,7 +3752,9 @@
       <c r="J8" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="306"/>
+      <c r="K8" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L8" s="242"/>
       <c r="M8" s="300" t="s">
         <v>75</v>
@@ -3773,9 +3781,9 @@
       <c r="A9" s="268" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="323"/>
-      <c r="C9" s="341"/>
-      <c r="D9" s="341"/>
+      <c r="B9" s="346"/>
+      <c r="C9" s="323"/>
+      <c r="D9" s="323"/>
       <c r="E9" s="285" t="s">
         <v>123</v>
       </c>
@@ -3794,7 +3802,9 @@
       <c r="J9" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="306"/>
+      <c r="K9" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L9" s="242"/>
       <c r="M9" s="301" t="s">
         <v>75</v>
@@ -3821,9 +3831,9 @@
       <c r="A10" s="268" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="323"/>
-      <c r="C10" s="341"/>
-      <c r="D10" s="341"/>
+      <c r="B10" s="346"/>
+      <c r="C10" s="323"/>
+      <c r="D10" s="323"/>
       <c r="E10" s="285" t="s">
         <v>116</v>
       </c>
@@ -3842,7 +3852,9 @@
       <c r="J10" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="306"/>
+      <c r="K10" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L10" s="242"/>
       <c r="M10" s="317" t="s">
         <v>75</v>
@@ -3869,9 +3881,9 @@
       <c r="A11" s="268" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="323"/>
-      <c r="C11" s="341"/>
-      <c r="D11" s="341"/>
+      <c r="B11" s="346"/>
+      <c r="C11" s="323"/>
+      <c r="D11" s="323"/>
       <c r="E11" s="285" t="s">
         <v>84</v>
       </c>
@@ -3890,7 +3902,9 @@
       <c r="J11" s="269" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="306"/>
+      <c r="K11" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L11" s="242"/>
       <c r="M11" s="317" t="s">
         <v>79</v>
@@ -3917,9 +3931,9 @@
       <c r="A12" s="268" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="323"/>
-      <c r="C12" s="341"/>
-      <c r="D12" s="341"/>
+      <c r="B12" s="346"/>
+      <c r="C12" s="323"/>
+      <c r="D12" s="323"/>
       <c r="E12" s="285" t="s">
         <v>77</v>
       </c>
@@ -3938,7 +3952,9 @@
       <c r="J12" s="269" t="s">
         <v>125</v>
       </c>
-      <c r="K12" s="306"/>
+      <c r="K12" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L12" s="242"/>
       <c r="M12" s="301" t="s">
         <v>79</v>
@@ -3965,9 +3981,9 @@
       <c r="A13" s="268" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="323"/>
-      <c r="C13" s="341"/>
-      <c r="D13" s="341"/>
+      <c r="B13" s="346"/>
+      <c r="C13" s="323"/>
+      <c r="D13" s="323"/>
       <c r="E13" s="285" t="s">
         <v>126</v>
       </c>
@@ -3986,7 +4002,9 @@
       <c r="J13" s="269" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="306"/>
+      <c r="K13" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L13" s="242"/>
       <c r="M13" s="301" t="s">
         <v>79</v>
@@ -4013,9 +4031,9 @@
       <c r="A14" s="268" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="323"/>
-      <c r="C14" s="341"/>
-      <c r="D14" s="341"/>
+      <c r="B14" s="346"/>
+      <c r="C14" s="323"/>
+      <c r="D14" s="323"/>
       <c r="E14" s="285" t="s">
         <v>130</v>
       </c>
@@ -4034,7 +4052,9 @@
       <c r="J14" s="269" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="306"/>
+      <c r="K14" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L14" s="242"/>
       <c r="M14" s="302" t="s">
         <v>79</v>
@@ -4061,9 +4081,9 @@
       <c r="A15" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="323"/>
-      <c r="C15" s="341"/>
-      <c r="D15" s="341"/>
+      <c r="B15" s="346"/>
+      <c r="C15" s="323"/>
+      <c r="D15" s="323"/>
       <c r="E15" s="285" t="s">
         <v>91</v>
       </c>
@@ -4082,7 +4102,9 @@
       <c r="J15" s="269" t="s">
         <v>134</v>
       </c>
-      <c r="K15" s="306"/>
+      <c r="K15" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L15" s="242"/>
       <c r="M15" s="302" t="s">
         <v>79</v>
@@ -4109,9 +4131,9 @@
       <c r="A16" s="268" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="323"/>
-      <c r="C16" s="341"/>
-      <c r="D16" s="341"/>
+      <c r="B16" s="346"/>
+      <c r="C16" s="323"/>
+      <c r="D16" s="323"/>
       <c r="E16" s="285" t="s">
         <v>135</v>
       </c>
@@ -4130,7 +4152,9 @@
       <c r="J16" s="269" t="s">
         <v>131</v>
       </c>
-      <c r="K16" s="306"/>
+      <c r="K16" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L16" s="242"/>
       <c r="M16" s="302" t="s">
         <v>79</v>
@@ -4157,9 +4181,9 @@
       <c r="A17" s="268" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="323"/>
-      <c r="C17" s="341"/>
-      <c r="D17" s="341"/>
+      <c r="B17" s="346"/>
+      <c r="C17" s="323"/>
+      <c r="D17" s="323"/>
       <c r="E17" s="285" t="s">
         <v>96</v>
       </c>
@@ -4178,7 +4202,9 @@
       <c r="J17" s="269" t="s">
         <v>113</v>
       </c>
-      <c r="K17" s="306"/>
+      <c r="K17" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L17" s="242"/>
       <c r="M17" s="302" t="s">
         <v>79</v>
@@ -4205,9 +4231,9 @@
       <c r="A18" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="323"/>
-      <c r="C18" s="341"/>
-      <c r="D18" s="341"/>
+      <c r="B18" s="346"/>
+      <c r="C18" s="323"/>
+      <c r="D18" s="323"/>
       <c r="E18" s="285" t="s">
         <v>97</v>
       </c>
@@ -4226,7 +4252,9 @@
       <c r="J18" s="269" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="306"/>
+      <c r="K18" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L18" s="242"/>
       <c r="M18" s="302" t="s">
         <v>79</v>
@@ -4253,9 +4281,9 @@
       <c r="A19" s="268" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="323"/>
-      <c r="C19" s="341"/>
-      <c r="D19" s="341"/>
+      <c r="B19" s="346"/>
+      <c r="C19" s="323"/>
+      <c r="D19" s="323"/>
       <c r="E19" s="285" t="s">
         <v>98</v>
       </c>
@@ -4274,7 +4302,9 @@
       <c r="J19" s="269" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="306"/>
+      <c r="K19" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L19" s="242"/>
       <c r="M19" s="302" t="s">
         <v>79</v>
@@ -4301,9 +4331,9 @@
       <c r="A20" s="268" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="323"/>
-      <c r="C20" s="341"/>
-      <c r="D20" s="341"/>
+      <c r="B20" s="346"/>
+      <c r="C20" s="323"/>
+      <c r="D20" s="323"/>
       <c r="E20" s="288" t="s">
         <v>146</v>
       </c>
@@ -4322,7 +4352,9 @@
       <c r="J20" s="269" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="306"/>
+      <c r="K20" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L20" s="242"/>
       <c r="M20" s="302" t="s">
         <v>79</v>
@@ -4349,9 +4381,9 @@
       <c r="A21" s="268" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="323"/>
-      <c r="C21" s="341"/>
-      <c r="D21" s="341"/>
+      <c r="B21" s="346"/>
+      <c r="C21" s="323"/>
+      <c r="D21" s="323"/>
       <c r="E21" s="289" t="s">
         <v>147</v>
       </c>
@@ -4370,7 +4402,9 @@
       <c r="J21" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="306"/>
+      <c r="K21" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L21" s="242"/>
       <c r="M21" s="302" t="s">
         <v>75</v>
@@ -4397,16 +4431,16 @@
       <c r="A22" s="268" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="323"/>
-      <c r="C22" s="341"/>
-      <c r="D22" s="341"/>
+      <c r="B22" s="346"/>
+      <c r="C22" s="323"/>
+      <c r="D22" s="323"/>
       <c r="E22" s="289" t="s">
         <v>150</v>
       </c>
       <c r="F22" s="287" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="384" t="s">
+      <c r="G22" s="320" t="s">
         <v>151</v>
       </c>
       <c r="H22" s="269" t="s">
@@ -4418,7 +4452,9 @@
       <c r="J22" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="306"/>
+      <c r="K22" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L22" s="242"/>
       <c r="M22" s="302" t="s">
         <v>75</v>
@@ -4445,9 +4481,9 @@
       <c r="A23" s="268" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="323"/>
-      <c r="C23" s="341"/>
-      <c r="D23" s="341"/>
+      <c r="B23" s="346"/>
+      <c r="C23" s="323"/>
+      <c r="D23" s="323"/>
       <c r="E23" s="289" t="s">
         <v>155</v>
       </c>
@@ -4466,7 +4502,9 @@
       <c r="J23" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="306"/>
+      <c r="K23" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L23" s="242"/>
       <c r="M23" s="302" t="s">
         <v>75</v>
@@ -4493,9 +4531,9 @@
       <c r="A24" s="268" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="323"/>
-      <c r="C24" s="341"/>
-      <c r="D24" s="341"/>
+      <c r="B24" s="346"/>
+      <c r="C24" s="323"/>
+      <c r="D24" s="323"/>
       <c r="E24" s="289" t="s">
         <v>159</v>
       </c>
@@ -4514,7 +4552,9 @@
       <c r="J24" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K24" s="306"/>
+      <c r="K24" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L24" s="242"/>
       <c r="M24" s="302" t="s">
         <v>75</v>
@@ -4541,9 +4581,9 @@
       <c r="A25" s="268" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="323"/>
-      <c r="C25" s="341"/>
-      <c r="D25" s="341"/>
+      <c r="B25" s="346"/>
+      <c r="C25" s="323"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="289" t="s">
         <v>163</v>
       </c>
@@ -4562,7 +4602,9 @@
       <c r="J25" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K25" s="306"/>
+      <c r="K25" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L25" s="242"/>
       <c r="M25" s="302" t="s">
         <v>75</v>
@@ -4589,9 +4631,9 @@
       <c r="A26" s="268" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="323"/>
-      <c r="C26" s="341"/>
-      <c r="D26" s="341"/>
+      <c r="B26" s="346"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="323"/>
       <c r="E26" s="289" t="s">
         <v>166</v>
       </c>
@@ -4610,7 +4652,9 @@
       <c r="J26" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="306"/>
+      <c r="K26" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L26" s="242"/>
       <c r="M26" s="302" t="s">
         <v>75</v>
@@ -4637,9 +4681,9 @@
       <c r="A27" s="274" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="323"/>
-      <c r="C27" s="341"/>
-      <c r="D27" s="341"/>
+      <c r="B27" s="346"/>
+      <c r="C27" s="323"/>
+      <c r="D27" s="323"/>
       <c r="E27" s="289" t="s">
         <v>169</v>
       </c>
@@ -4658,7 +4702,9 @@
       <c r="J27" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="306"/>
+      <c r="K27" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L27" s="242"/>
       <c r="M27" s="302" t="s">
         <v>75</v>
@@ -4685,9 +4731,9 @@
       <c r="A28" s="276" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="323"/>
-      <c r="C28" s="341"/>
-      <c r="D28" s="341"/>
+      <c r="B28" s="346"/>
+      <c r="C28" s="323"/>
+      <c r="D28" s="323"/>
       <c r="E28" s="289" t="s">
         <v>170</v>
       </c>
@@ -4706,7 +4752,9 @@
       <c r="J28" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K28" s="306"/>
+      <c r="K28" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L28" s="242"/>
       <c r="M28" s="302" t="s">
         <v>75</v>
@@ -4733,9 +4781,9 @@
       <c r="A29" s="268" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="323"/>
-      <c r="C29" s="341"/>
-      <c r="D29" s="341"/>
+      <c r="B29" s="346"/>
+      <c r="C29" s="323"/>
+      <c r="D29" s="323"/>
       <c r="E29" s="289" t="s">
         <v>171</v>
       </c>
@@ -4754,7 +4802,9 @@
       <c r="J29" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="306"/>
+      <c r="K29" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L29" s="242"/>
       <c r="M29" s="302" t="s">
         <v>75</v>
@@ -4781,9 +4831,9 @@
       <c r="A30" s="268" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="323"/>
-      <c r="C30" s="341"/>
-      <c r="D30" s="341"/>
+      <c r="B30" s="346"/>
+      <c r="C30" s="323"/>
+      <c r="D30" s="323"/>
       <c r="E30" s="289" t="s">
         <v>182</v>
       </c>
@@ -4802,7 +4852,9 @@
       <c r="J30" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K30" s="306"/>
+      <c r="K30" s="385" t="s">
+        <v>188</v>
+      </c>
       <c r="L30" s="242"/>
       <c r="M30" s="302" t="s">
         <v>75</v>
@@ -4827,9 +4879,9 @@
     </row>
     <row r="31" spans="1:30" ht="120" customHeight="1">
       <c r="A31" s="268"/>
-      <c r="B31" s="323"/>
-      <c r="C31" s="341"/>
-      <c r="D31" s="341"/>
+      <c r="B31" s="346"/>
+      <c r="C31" s="323"/>
+      <c r="D31" s="323"/>
       <c r="E31" s="289"/>
       <c r="F31" s="287"/>
       <c r="G31" s="273"/>
@@ -4859,9 +4911,9 @@
     </row>
     <row r="32" spans="1:30" ht="84" customHeight="1">
       <c r="A32" s="268"/>
-      <c r="B32" s="323"/>
-      <c r="C32" s="341"/>
-      <c r="D32" s="341"/>
+      <c r="B32" s="346"/>
+      <c r="C32" s="323"/>
+      <c r="D32" s="323"/>
       <c r="E32" s="289"/>
       <c r="F32" s="287"/>
       <c r="G32" s="273"/>
@@ -4891,9 +4943,9 @@
     </row>
     <row r="33" spans="1:30" ht="84" customHeight="1">
       <c r="A33" s="268"/>
-      <c r="B33" s="323"/>
-      <c r="C33" s="341"/>
-      <c r="D33" s="341"/>
+      <c r="B33" s="346"/>
+      <c r="C33" s="323"/>
+      <c r="D33" s="323"/>
       <c r="E33" s="289"/>
       <c r="F33" s="287"/>
       <c r="G33" s="273"/>
@@ -4923,9 +4975,9 @@
     </row>
     <row r="34" spans="1:30" ht="68.25" customHeight="1">
       <c r="A34" s="268"/>
-      <c r="B34" s="323"/>
-      <c r="C34" s="341"/>
-      <c r="D34" s="341"/>
+      <c r="B34" s="346"/>
+      <c r="C34" s="323"/>
+      <c r="D34" s="323"/>
       <c r="E34" s="289"/>
       <c r="F34" s="287"/>
       <c r="G34" s="273"/>
@@ -4955,9 +5007,9 @@
     </row>
     <row r="35" spans="1:30" ht="68.25" customHeight="1">
       <c r="A35" s="268"/>
-      <c r="B35" s="323"/>
-      <c r="C35" s="341"/>
-      <c r="D35" s="341"/>
+      <c r="B35" s="346"/>
+      <c r="C35" s="323"/>
+      <c r="D35" s="323"/>
       <c r="E35" s="289"/>
       <c r="F35" s="287"/>
       <c r="G35" s="273"/>
@@ -4987,9 +5039,9 @@
     </row>
     <row r="36" spans="1:30" ht="68.25" customHeight="1">
       <c r="A36" s="268"/>
-      <c r="B36" s="323"/>
-      <c r="C36" s="341"/>
-      <c r="D36" s="341"/>
+      <c r="B36" s="346"/>
+      <c r="C36" s="323"/>
+      <c r="D36" s="323"/>
       <c r="E36" s="289"/>
       <c r="F36" s="287"/>
       <c r="G36" s="273"/>
@@ -5019,9 +5071,9 @@
     </row>
     <row r="37" spans="1:30" ht="68.25" customHeight="1">
       <c r="A37" s="268"/>
-      <c r="B37" s="323"/>
-      <c r="C37" s="341"/>
-      <c r="D37" s="341"/>
+      <c r="B37" s="346"/>
+      <c r="C37" s="323"/>
+      <c r="D37" s="323"/>
       <c r="E37" s="289"/>
       <c r="F37" s="287"/>
       <c r="G37" s="273"/>
@@ -5051,9 +5103,9 @@
     </row>
     <row r="38" spans="1:30" ht="68.25" customHeight="1">
       <c r="A38" s="268"/>
-      <c r="B38" s="323"/>
-      <c r="C38" s="341"/>
-      <c r="D38" s="341"/>
+      <c r="B38" s="346"/>
+      <c r="C38" s="323"/>
+      <c r="D38" s="323"/>
       <c r="E38" s="289"/>
       <c r="F38" s="287"/>
       <c r="G38" s="273"/>
@@ -5083,9 +5135,9 @@
     </row>
     <row r="39" spans="1:30" ht="68.25" customHeight="1">
       <c r="A39" s="268"/>
-      <c r="B39" s="323"/>
-      <c r="C39" s="341"/>
-      <c r="D39" s="341"/>
+      <c r="B39" s="346"/>
+      <c r="C39" s="323"/>
+      <c r="D39" s="323"/>
       <c r="E39" s="289"/>
       <c r="F39" s="287"/>
       <c r="G39" s="273"/>
@@ -5115,9 +5167,9 @@
     </row>
     <row r="40" spans="1:30" ht="68.25" customHeight="1">
       <c r="A40" s="268"/>
-      <c r="B40" s="323"/>
-      <c r="C40" s="341"/>
-      <c r="D40" s="341"/>
+      <c r="B40" s="346"/>
+      <c r="C40" s="323"/>
+      <c r="D40" s="323"/>
       <c r="E40" s="289"/>
       <c r="F40" s="287"/>
       <c r="G40" s="273"/>
@@ -5147,9 +5199,9 @@
     </row>
     <row r="41" spans="1:30" ht="68.25" customHeight="1">
       <c r="A41" s="268"/>
-      <c r="B41" s="323"/>
-      <c r="C41" s="341"/>
-      <c r="D41" s="341"/>
+      <c r="B41" s="346"/>
+      <c r="C41" s="323"/>
+      <c r="D41" s="323"/>
       <c r="E41" s="289"/>
       <c r="F41" s="287"/>
       <c r="G41" s="273"/>
@@ -5179,9 +5231,9 @@
     </row>
     <row r="42" spans="1:30" ht="68.25" customHeight="1">
       <c r="A42" s="268"/>
-      <c r="B42" s="323"/>
-      <c r="C42" s="341"/>
-      <c r="D42" s="341"/>
+      <c r="B42" s="346"/>
+      <c r="C42" s="323"/>
+      <c r="D42" s="323"/>
       <c r="E42" s="289"/>
       <c r="F42" s="287"/>
       <c r="G42" s="273"/>
@@ -5211,9 +5263,9 @@
     </row>
     <row r="43" spans="1:30" ht="68.25" customHeight="1">
       <c r="A43" s="268"/>
-      <c r="B43" s="323"/>
-      <c r="C43" s="341"/>
-      <c r="D43" s="341"/>
+      <c r="B43" s="346"/>
+      <c r="C43" s="323"/>
+      <c r="D43" s="323"/>
       <c r="E43" s="289"/>
       <c r="F43" s="287"/>
       <c r="G43" s="273"/>
@@ -5243,9 +5295,9 @@
     </row>
     <row r="44" spans="1:30" ht="68.25" customHeight="1">
       <c r="A44" s="268"/>
-      <c r="B44" s="323"/>
-      <c r="C44" s="341"/>
-      <c r="D44" s="341"/>
+      <c r="B44" s="346"/>
+      <c r="C44" s="323"/>
+      <c r="D44" s="323"/>
       <c r="E44" s="289"/>
       <c r="F44" s="287"/>
       <c r="G44" s="273"/>
@@ -5275,9 +5327,9 @@
     </row>
     <row r="45" spans="1:30" ht="97.5" customHeight="1">
       <c r="A45" s="268"/>
-      <c r="B45" s="323"/>
-      <c r="C45" s="341"/>
-      <c r="D45" s="341"/>
+      <c r="B45" s="346"/>
+      <c r="C45" s="323"/>
+      <c r="D45" s="323"/>
       <c r="E45" s="289"/>
       <c r="F45" s="287"/>
       <c r="G45" s="273"/>
@@ -5307,9 +5359,9 @@
     </row>
     <row r="46" spans="1:30" ht="76.5" customHeight="1">
       <c r="A46" s="268"/>
-      <c r="B46" s="323"/>
-      <c r="C46" s="341"/>
-      <c r="D46" s="341"/>
+      <c r="B46" s="346"/>
+      <c r="C46" s="323"/>
+      <c r="D46" s="323"/>
       <c r="E46" s="289"/>
       <c r="F46" s="287"/>
       <c r="G46" s="273"/>
@@ -5339,9 +5391,9 @@
     </row>
     <row r="47" spans="1:30" ht="68.25" customHeight="1">
       <c r="A47" s="268"/>
-      <c r="B47" s="323"/>
-      <c r="C47" s="341"/>
-      <c r="D47" s="341"/>
+      <c r="B47" s="346"/>
+      <c r="C47" s="323"/>
+      <c r="D47" s="323"/>
       <c r="E47" s="289"/>
       <c r="F47" s="287"/>
       <c r="G47" s="273"/>
@@ -5371,9 +5423,9 @@
     </row>
     <row r="48" spans="1:30" ht="79.5" customHeight="1">
       <c r="A48" s="268"/>
-      <c r="B48" s="324"/>
-      <c r="C48" s="326"/>
-      <c r="D48" s="341"/>
+      <c r="B48" s="347"/>
+      <c r="C48" s="349"/>
+      <c r="D48" s="323"/>
       <c r="E48" s="294"/>
       <c r="F48" s="295"/>
       <c r="G48" s="281"/>
@@ -5403,9 +5455,9 @@
     </row>
     <row r="49" spans="1:30" ht="70.5" customHeight="1">
       <c r="A49" s="268"/>
-      <c r="B49" s="324"/>
-      <c r="C49" s="327"/>
-      <c r="D49" s="341"/>
+      <c r="B49" s="347"/>
+      <c r="C49" s="350"/>
+      <c r="D49" s="323"/>
       <c r="E49" s="289"/>
       <c r="F49" s="287"/>
       <c r="G49" s="271"/>
@@ -5435,9 +5487,9 @@
     </row>
     <row r="50" spans="1:30" ht="86.25" customHeight="1">
       <c r="A50" s="268"/>
-      <c r="B50" s="324"/>
-      <c r="C50" s="327"/>
-      <c r="D50" s="341"/>
+      <c r="B50" s="347"/>
+      <c r="C50" s="350"/>
+      <c r="D50" s="323"/>
       <c r="E50" s="289"/>
       <c r="F50" s="287"/>
       <c r="G50" s="279"/>
@@ -5467,9 +5519,9 @@
     </row>
     <row r="51" spans="1:30" ht="87.75" customHeight="1">
       <c r="A51" s="268"/>
-      <c r="B51" s="324"/>
-      <c r="C51" s="327"/>
-      <c r="D51" s="341"/>
+      <c r="B51" s="347"/>
+      <c r="C51" s="350"/>
+      <c r="D51" s="323"/>
       <c r="E51" s="289"/>
       <c r="F51" s="287"/>
       <c r="G51" s="279"/>
@@ -5499,9 +5551,9 @@
     </row>
     <row r="52" spans="1:30" ht="75" customHeight="1">
       <c r="A52" s="268"/>
-      <c r="B52" s="324"/>
-      <c r="C52" s="327"/>
-      <c r="D52" s="341"/>
+      <c r="B52" s="347"/>
+      <c r="C52" s="350"/>
+      <c r="D52" s="323"/>
       <c r="E52" s="289"/>
       <c r="F52" s="287"/>
       <c r="G52" s="279"/>
@@ -5531,9 +5583,9 @@
     </row>
     <row r="53" spans="1:30" ht="69" customHeight="1">
       <c r="A53" s="268"/>
-      <c r="B53" s="324"/>
-      <c r="C53" s="327"/>
-      <c r="D53" s="341"/>
+      <c r="B53" s="347"/>
+      <c r="C53" s="350"/>
+      <c r="D53" s="323"/>
       <c r="E53" s="289"/>
       <c r="F53" s="287"/>
       <c r="G53" s="279"/>
@@ -5563,9 +5615,9 @@
     </row>
     <row r="54" spans="1:30" ht="123.75" customHeight="1">
       <c r="A54" s="268"/>
-      <c r="B54" s="324"/>
-      <c r="C54" s="327"/>
-      <c r="D54" s="341"/>
+      <c r="B54" s="347"/>
+      <c r="C54" s="350"/>
+      <c r="D54" s="323"/>
       <c r="E54" s="289"/>
       <c r="F54" s="287"/>
       <c r="G54" s="279"/>
@@ -5595,9 +5647,9 @@
     </row>
     <row r="55" spans="1:30" ht="92.25" customHeight="1">
       <c r="A55" s="268"/>
-      <c r="B55" s="324"/>
-      <c r="C55" s="327"/>
-      <c r="D55" s="341"/>
+      <c r="B55" s="347"/>
+      <c r="C55" s="350"/>
+      <c r="D55" s="323"/>
       <c r="E55" s="289"/>
       <c r="F55" s="287"/>
       <c r="G55" s="279"/>
@@ -5627,9 +5679,9 @@
     </row>
     <row r="56" spans="1:30" ht="73.5" customHeight="1">
       <c r="A56" s="268"/>
-      <c r="B56" s="324"/>
-      <c r="C56" s="327"/>
-      <c r="D56" s="341"/>
+      <c r="B56" s="347"/>
+      <c r="C56" s="350"/>
+      <c r="D56" s="323"/>
       <c r="E56" s="289"/>
       <c r="F56" s="287"/>
       <c r="G56" s="279"/>
@@ -5659,9 +5711,9 @@
     </row>
     <row r="57" spans="1:30" ht="87.75" customHeight="1">
       <c r="A57" s="268"/>
-      <c r="B57" s="324"/>
-      <c r="C57" s="327"/>
-      <c r="D57" s="341"/>
+      <c r="B57" s="347"/>
+      <c r="C57" s="350"/>
+      <c r="D57" s="323"/>
       <c r="E57" s="289"/>
       <c r="F57" s="287"/>
       <c r="G57" s="281"/>
@@ -5691,9 +5743,9 @@
     </row>
     <row r="58" spans="1:30" ht="98.25" customHeight="1">
       <c r="A58" s="268"/>
-      <c r="B58" s="324"/>
-      <c r="C58" s="327"/>
-      <c r="D58" s="341"/>
+      <c r="B58" s="347"/>
+      <c r="C58" s="350"/>
+      <c r="D58" s="323"/>
       <c r="E58" s="289"/>
       <c r="F58" s="287"/>
       <c r="G58" s="284"/>
@@ -5723,9 +5775,9 @@
     </row>
     <row r="59" spans="1:30" s="107" customFormat="1" ht="84.75" customHeight="1">
       <c r="A59" s="268"/>
-      <c r="B59" s="324"/>
-      <c r="C59" s="327"/>
-      <c r="D59" s="341"/>
+      <c r="B59" s="347"/>
+      <c r="C59" s="350"/>
+      <c r="D59" s="323"/>
       <c r="E59" s="290"/>
       <c r="F59" s="291"/>
       <c r="G59" s="281"/>
@@ -5755,9 +5807,9 @@
     </row>
     <row r="60" spans="1:30" s="128" customFormat="1" ht="75.75" customHeight="1">
       <c r="A60" s="268"/>
-      <c r="B60" s="324"/>
-      <c r="C60" s="327"/>
-      <c r="D60" s="341"/>
+      <c r="B60" s="347"/>
+      <c r="C60" s="350"/>
+      <c r="D60" s="323"/>
       <c r="E60" s="289"/>
       <c r="F60" s="287"/>
       <c r="G60" s="273"/>
@@ -5787,9 +5839,9 @@
     </row>
     <row r="61" spans="1:30" s="107" customFormat="1" ht="109.5" customHeight="1">
       <c r="A61" s="268"/>
-      <c r="B61" s="324"/>
-      <c r="C61" s="327"/>
-      <c r="D61" s="341"/>
+      <c r="B61" s="347"/>
+      <c r="C61" s="350"/>
+      <c r="D61" s="323"/>
       <c r="E61" s="292"/>
       <c r="F61" s="293"/>
       <c r="G61" s="277"/>
@@ -5819,9 +5871,9 @@
     </row>
     <row r="62" spans="1:30" ht="81.75" customHeight="1">
       <c r="A62" s="268"/>
-      <c r="B62" s="324"/>
-      <c r="C62" s="327"/>
-      <c r="D62" s="341"/>
+      <c r="B62" s="347"/>
+      <c r="C62" s="350"/>
+      <c r="D62" s="323"/>
       <c r="E62" s="296"/>
       <c r="F62" s="287"/>
       <c r="G62" s="273"/>
@@ -5851,9 +5903,9 @@
     </row>
     <row r="63" spans="1:30" ht="208.5" customHeight="1">
       <c r="A63" s="268"/>
-      <c r="B63" s="324"/>
-      <c r="C63" s="327"/>
-      <c r="D63" s="341"/>
+      <c r="B63" s="347"/>
+      <c r="C63" s="350"/>
+      <c r="D63" s="323"/>
       <c r="E63" s="296"/>
       <c r="F63" s="287"/>
       <c r="G63" s="271"/>
@@ -5883,9 +5935,9 @@
     </row>
     <row r="64" spans="1:30" s="107" customFormat="1" ht="156" customHeight="1">
       <c r="A64" s="268"/>
-      <c r="B64" s="324"/>
-      <c r="C64" s="327"/>
-      <c r="D64" s="341"/>
+      <c r="B64" s="347"/>
+      <c r="C64" s="350"/>
+      <c r="D64" s="323"/>
       <c r="E64" s="297"/>
       <c r="F64" s="291"/>
       <c r="G64" s="281"/>
@@ -5915,9 +5967,9 @@
     </row>
     <row r="65" spans="1:30" s="128" customFormat="1" ht="78" customHeight="1">
       <c r="A65" s="268"/>
-      <c r="B65" s="324"/>
-      <c r="C65" s="327"/>
-      <c r="D65" s="341"/>
+      <c r="B65" s="347"/>
+      <c r="C65" s="350"/>
+      <c r="D65" s="323"/>
       <c r="E65" s="289"/>
       <c r="F65" s="287"/>
       <c r="G65" s="273"/>
@@ -5947,8 +5999,8 @@
     </row>
     <row r="66" spans="1:30" s="107" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="268"/>
-      <c r="B66" s="324"/>
-      <c r="C66" s="327"/>
+      <c r="B66" s="347"/>
+      <c r="C66" s="350"/>
       <c r="D66" s="151"/>
       <c r="E66" s="298"/>
       <c r="F66" s="299"/>
@@ -5979,8 +6031,8 @@
     </row>
     <row r="67" spans="1:30" ht="15.75" customHeight="1">
       <c r="A67" s="268"/>
-      <c r="B67" s="324"/>
-      <c r="C67" s="327"/>
+      <c r="B67" s="347"/>
+      <c r="C67" s="350"/>
       <c r="D67" s="151"/>
       <c r="E67" s="298"/>
       <c r="F67" s="299"/>
@@ -6011,8 +6063,8 @@
     </row>
     <row r="68" spans="1:30" ht="15.75" customHeight="1">
       <c r="A68" s="268"/>
-      <c r="B68" s="324"/>
-      <c r="C68" s="327"/>
+      <c r="B68" s="347"/>
+      <c r="C68" s="350"/>
       <c r="D68" s="151"/>
       <c r="E68" s="298"/>
       <c r="F68" s="299"/>
@@ -6043,8 +6095,8 @@
     </row>
     <row r="69" spans="1:30" ht="15.75" customHeight="1">
       <c r="A69" s="268"/>
-      <c r="B69" s="324"/>
-      <c r="C69" s="327"/>
+      <c r="B69" s="347"/>
+      <c r="C69" s="350"/>
       <c r="D69" s="151"/>
       <c r="E69" s="298"/>
       <c r="F69" s="299"/>
@@ -6075,8 +6127,8 @@
     </row>
     <row r="70" spans="1:30" ht="15.75" customHeight="1">
       <c r="A70" s="268"/>
-      <c r="B70" s="324"/>
-      <c r="C70" s="327"/>
+      <c r="B70" s="347"/>
+      <c r="C70" s="350"/>
       <c r="D70" s="151"/>
       <c r="E70" s="298"/>
       <c r="F70" s="299"/>
@@ -6107,8 +6159,8 @@
     </row>
     <row r="71" spans="1:30" ht="15.75" customHeight="1">
       <c r="A71" s="268"/>
-      <c r="B71" s="324"/>
-      <c r="C71" s="327"/>
+      <c r="B71" s="347"/>
+      <c r="C71" s="350"/>
       <c r="D71" s="151"/>
       <c r="E71" s="298"/>
       <c r="F71" s="299"/>
@@ -6139,8 +6191,8 @@
     </row>
     <row r="72" spans="1:30" ht="15.75" customHeight="1">
       <c r="A72" s="268"/>
-      <c r="B72" s="324"/>
-      <c r="C72" s="327"/>
+      <c r="B72" s="347"/>
+      <c r="C72" s="350"/>
       <c r="D72" s="151"/>
       <c r="E72" s="298"/>
       <c r="F72" s="299"/>
@@ -6171,8 +6223,8 @@
     </row>
     <row r="73" spans="1:30" ht="15.75" customHeight="1">
       <c r="A73" s="268"/>
-      <c r="B73" s="324"/>
-      <c r="C73" s="327"/>
+      <c r="B73" s="347"/>
+      <c r="C73" s="350"/>
       <c r="D73" s="151"/>
       <c r="E73" s="298"/>
       <c r="F73" s="299"/>
@@ -6203,8 +6255,8 @@
     </row>
     <row r="74" spans="1:30" ht="15.75" customHeight="1">
       <c r="A74" s="268"/>
-      <c r="B74" s="324"/>
-      <c r="C74" s="327"/>
+      <c r="B74" s="347"/>
+      <c r="C74" s="350"/>
       <c r="D74" s="151"/>
       <c r="E74" s="298"/>
       <c r="F74" s="299"/>
@@ -6235,8 +6287,8 @@
     </row>
     <row r="75" spans="1:30" ht="15.75" customHeight="1">
       <c r="A75" s="268"/>
-      <c r="B75" s="324"/>
-      <c r="C75" s="327"/>
+      <c r="B75" s="347"/>
+      <c r="C75" s="350"/>
       <c r="D75" s="151"/>
       <c r="E75" s="202"/>
       <c r="F75" s="89"/>
@@ -6267,8 +6319,8 @@
     </row>
     <row r="76" spans="1:30" ht="15.75" customHeight="1">
       <c r="A76" s="268"/>
-      <c r="B76" s="324"/>
-      <c r="C76" s="327"/>
+      <c r="B76" s="347"/>
+      <c r="C76" s="350"/>
       <c r="D76" s="151"/>
       <c r="E76" s="202"/>
       <c r="F76" s="89"/>
@@ -6299,8 +6351,8 @@
     </row>
     <row r="77" spans="1:30" ht="15.75" customHeight="1">
       <c r="A77" s="268"/>
-      <c r="B77" s="324"/>
-      <c r="C77" s="327"/>
+      <c r="B77" s="347"/>
+      <c r="C77" s="350"/>
       <c r="D77" s="151"/>
       <c r="E77" s="202"/>
       <c r="F77" s="89"/>
@@ -6331,8 +6383,8 @@
     </row>
     <row r="78" spans="1:30" ht="15.75" customHeight="1">
       <c r="A78" s="268"/>
-      <c r="B78" s="324"/>
-      <c r="C78" s="327"/>
+      <c r="B78" s="347"/>
+      <c r="C78" s="350"/>
       <c r="D78" s="151"/>
       <c r="E78" s="202"/>
       <c r="F78" s="89"/>
@@ -6363,8 +6415,8 @@
     </row>
     <row r="79" spans="1:30" ht="15.75" customHeight="1">
       <c r="A79" s="268"/>
-      <c r="B79" s="324"/>
-      <c r="C79" s="327"/>
+      <c r="B79" s="347"/>
+      <c r="C79" s="350"/>
       <c r="D79" s="151"/>
       <c r="E79" s="202"/>
       <c r="F79" s="89"/>
@@ -6395,8 +6447,8 @@
     </row>
     <row r="80" spans="1:30" ht="15.75" customHeight="1">
       <c r="A80" s="268"/>
-      <c r="B80" s="324"/>
-      <c r="C80" s="327"/>
+      <c r="B80" s="347"/>
+      <c r="C80" s="350"/>
       <c r="D80" s="151"/>
       <c r="E80" s="202"/>
       <c r="F80" s="89"/>
@@ -6427,9 +6479,9 @@
     </row>
     <row r="81" spans="1:30" ht="15.75" customHeight="1">
       <c r="A81" s="268"/>
-      <c r="B81" s="324"/>
-      <c r="C81" s="327"/>
-      <c r="D81" s="334"/>
+      <c r="B81" s="347"/>
+      <c r="C81" s="350"/>
+      <c r="D81" s="324"/>
       <c r="E81" s="202"/>
       <c r="F81" s="89"/>
       <c r="G81" s="89"/>
@@ -6459,9 +6511,9 @@
     </row>
     <row r="82" spans="1:30" ht="15.75" customHeight="1">
       <c r="A82" s="268"/>
-      <c r="B82" s="324"/>
-      <c r="C82" s="327"/>
-      <c r="D82" s="336"/>
+      <c r="B82" s="347"/>
+      <c r="C82" s="350"/>
+      <c r="D82" s="326"/>
       <c r="E82" s="202"/>
       <c r="F82" s="89"/>
       <c r="G82" s="89"/>
@@ -6491,9 +6543,9 @@
     </row>
     <row r="83" spans="1:30" ht="15.75" customHeight="1">
       <c r="A83" s="268"/>
-      <c r="B83" s="324"/>
-      <c r="C83" s="327"/>
-      <c r="D83" s="336"/>
+      <c r="B83" s="347"/>
+      <c r="C83" s="350"/>
+      <c r="D83" s="326"/>
       <c r="E83" s="202"/>
       <c r="F83" s="89"/>
       <c r="G83" s="89"/>
@@ -6523,9 +6575,9 @@
     </row>
     <row r="84" spans="1:30" ht="15.75" customHeight="1">
       <c r="A84" s="268"/>
-      <c r="B84" s="324"/>
-      <c r="C84" s="327"/>
-      <c r="D84" s="336"/>
+      <c r="B84" s="347"/>
+      <c r="C84" s="350"/>
+      <c r="D84" s="326"/>
       <c r="E84" s="202"/>
       <c r="F84" s="89"/>
       <c r="G84" s="89"/>
@@ -6555,9 +6607,9 @@
     </row>
     <row r="85" spans="1:30" ht="15.75" customHeight="1">
       <c r="A85" s="268"/>
-      <c r="B85" s="324"/>
-      <c r="C85" s="327"/>
-      <c r="D85" s="336"/>
+      <c r="B85" s="347"/>
+      <c r="C85" s="350"/>
+      <c r="D85" s="326"/>
       <c r="E85" s="202"/>
       <c r="F85" s="89"/>
       <c r="G85" s="89"/>
@@ -6587,9 +6639,9 @@
     </row>
     <row r="86" spans="1:30" ht="15.75" customHeight="1">
       <c r="A86" s="268"/>
-      <c r="B86" s="324"/>
-      <c r="C86" s="327"/>
-      <c r="D86" s="336"/>
+      <c r="B86" s="347"/>
+      <c r="C86" s="350"/>
+      <c r="D86" s="326"/>
       <c r="E86" s="202"/>
       <c r="F86" s="89"/>
       <c r="G86" s="89"/>
@@ -6619,9 +6671,9 @@
     </row>
     <row r="87" spans="1:30" ht="15.75" customHeight="1">
       <c r="A87" s="268"/>
-      <c r="B87" s="324"/>
-      <c r="C87" s="327"/>
-      <c r="D87" s="336"/>
+      <c r="B87" s="347"/>
+      <c r="C87" s="350"/>
+      <c r="D87" s="326"/>
       <c r="E87" s="202"/>
       <c r="F87" s="89"/>
       <c r="G87" s="89"/>
@@ -6651,9 +6703,9 @@
     </row>
     <row r="88" spans="1:30" ht="15.75" customHeight="1">
       <c r="A88" s="268"/>
-      <c r="B88" s="324"/>
-      <c r="C88" s="327"/>
-      <c r="D88" s="336"/>
+      <c r="B88" s="347"/>
+      <c r="C88" s="350"/>
+      <c r="D88" s="326"/>
       <c r="E88" s="202"/>
       <c r="F88" s="89"/>
       <c r="G88" s="89"/>
@@ -6683,9 +6735,9 @@
     </row>
     <row r="89" spans="1:30" ht="15.75" customHeight="1">
       <c r="A89" s="268"/>
-      <c r="B89" s="324"/>
-      <c r="C89" s="327"/>
-      <c r="D89" s="336"/>
+      <c r="B89" s="347"/>
+      <c r="C89" s="350"/>
+      <c r="D89" s="326"/>
       <c r="E89" s="202"/>
       <c r="F89" s="89"/>
       <c r="G89" s="89"/>
@@ -6715,9 +6767,9 @@
     </row>
     <row r="90" spans="1:30" ht="15.75" customHeight="1">
       <c r="A90" s="268"/>
-      <c r="B90" s="324"/>
-      <c r="C90" s="327"/>
-      <c r="D90" s="336"/>
+      <c r="B90" s="347"/>
+      <c r="C90" s="350"/>
+      <c r="D90" s="326"/>
       <c r="E90" s="202"/>
       <c r="F90" s="89"/>
       <c r="G90" s="89"/>
@@ -6747,8 +6799,8 @@
     </row>
     <row r="91" spans="1:30" ht="15.75" customHeight="1">
       <c r="A91" s="268"/>
-      <c r="B91" s="324"/>
-      <c r="C91" s="327"/>
+      <c r="B91" s="347"/>
+      <c r="C91" s="350"/>
       <c r="D91" s="150"/>
       <c r="E91" s="202"/>
       <c r="F91" s="89"/>
@@ -6779,9 +6831,9 @@
     </row>
     <row r="92" spans="1:30" ht="15.75" customHeight="1">
       <c r="A92" s="268"/>
-      <c r="B92" s="324"/>
-      <c r="C92" s="327"/>
-      <c r="D92" s="334"/>
+      <c r="B92" s="347"/>
+      <c r="C92" s="350"/>
+      <c r="D92" s="324"/>
       <c r="E92" s="202"/>
       <c r="F92" s="89"/>
       <c r="G92" s="89"/>
@@ -6811,9 +6863,9 @@
     </row>
     <row r="93" spans="1:30" ht="15.75" customHeight="1">
       <c r="A93" s="268"/>
-      <c r="B93" s="324"/>
-      <c r="C93" s="327"/>
-      <c r="D93" s="335"/>
+      <c r="B93" s="347"/>
+      <c r="C93" s="350"/>
+      <c r="D93" s="322"/>
       <c r="E93" s="202"/>
       <c r="F93" s="89"/>
       <c r="G93" s="89"/>
@@ -6843,9 +6895,9 @@
     </row>
     <row r="94" spans="1:30" ht="15.75" customHeight="1">
       <c r="A94" s="268"/>
-      <c r="B94" s="324"/>
-      <c r="C94" s="327"/>
-      <c r="D94" s="335"/>
+      <c r="B94" s="347"/>
+      <c r="C94" s="350"/>
+      <c r="D94" s="322"/>
       <c r="E94" s="202"/>
       <c r="F94" s="89"/>
       <c r="G94" s="89"/>
@@ -6875,9 +6927,9 @@
     </row>
     <row r="95" spans="1:30" ht="15.75" customHeight="1">
       <c r="A95" s="268"/>
-      <c r="B95" s="324"/>
-      <c r="C95" s="327"/>
-      <c r="D95" s="335"/>
+      <c r="B95" s="347"/>
+      <c r="C95" s="350"/>
+      <c r="D95" s="322"/>
       <c r="E95" s="202"/>
       <c r="F95" s="89"/>
       <c r="G95" s="89"/>
@@ -6907,9 +6959,9 @@
     </row>
     <row r="96" spans="1:30" ht="15.75" customHeight="1">
       <c r="A96" s="268"/>
-      <c r="B96" s="324"/>
-      <c r="C96" s="327"/>
-      <c r="D96" s="335"/>
+      <c r="B96" s="347"/>
+      <c r="C96" s="350"/>
+      <c r="D96" s="322"/>
       <c r="E96" s="202"/>
       <c r="F96" s="89"/>
       <c r="G96" s="89"/>
@@ -6939,8 +6991,8 @@
     </row>
     <row r="97" spans="1:30" ht="15.75" customHeight="1">
       <c r="A97" s="268"/>
-      <c r="B97" s="324"/>
-      <c r="C97" s="327"/>
+      <c r="B97" s="347"/>
+      <c r="C97" s="350"/>
       <c r="D97" s="175"/>
       <c r="E97" s="202"/>
       <c r="F97" s="89"/>
@@ -6971,9 +7023,9 @@
     </row>
     <row r="98" spans="1:30" ht="15.75" customHeight="1">
       <c r="A98" s="268"/>
-      <c r="B98" s="324"/>
-      <c r="C98" s="327"/>
-      <c r="D98" s="334"/>
+      <c r="B98" s="347"/>
+      <c r="C98" s="350"/>
+      <c r="D98" s="324"/>
       <c r="E98" s="202"/>
       <c r="F98" s="89"/>
       <c r="G98" s="89"/>
@@ -7003,9 +7055,9 @@
     </row>
     <row r="99" spans="1:30" ht="15.75" customHeight="1">
       <c r="A99" s="18"/>
-      <c r="B99" s="324"/>
-      <c r="C99" s="327"/>
-      <c r="D99" s="335"/>
+      <c r="B99" s="347"/>
+      <c r="C99" s="350"/>
+      <c r="D99" s="322"/>
       <c r="E99" s="202"/>
       <c r="F99" s="89"/>
       <c r="G99" s="89"/>
@@ -7035,8 +7087,8 @@
     </row>
     <row r="100" spans="1:30" ht="15.75" customHeight="1">
       <c r="A100" s="18"/>
-      <c r="B100" s="324"/>
-      <c r="C100" s="327"/>
+      <c r="B100" s="347"/>
+      <c r="C100" s="350"/>
       <c r="D100" s="152"/>
       <c r="E100" s="202"/>
       <c r="F100" s="89"/>
@@ -7067,9 +7119,9 @@
     </row>
     <row r="101" spans="1:30" ht="15.75" customHeight="1">
       <c r="A101" s="18"/>
-      <c r="B101" s="324"/>
-      <c r="C101" s="327"/>
-      <c r="D101" s="338"/>
+      <c r="B101" s="347"/>
+      <c r="C101" s="350"/>
+      <c r="D101" s="325"/>
       <c r="E101" s="202"/>
       <c r="F101" s="89"/>
       <c r="G101" s="89"/>
@@ -7099,9 +7151,9 @@
     </row>
     <row r="102" spans="1:30" ht="15.75" customHeight="1">
       <c r="A102" s="18"/>
-      <c r="B102" s="324"/>
-      <c r="C102" s="327"/>
-      <c r="D102" s="335"/>
+      <c r="B102" s="347"/>
+      <c r="C102" s="350"/>
+      <c r="D102" s="322"/>
       <c r="E102" s="202"/>
       <c r="F102" s="89"/>
       <c r="G102" s="89"/>
@@ -7131,9 +7183,9 @@
     </row>
     <row r="103" spans="1:30" ht="15.75" customHeight="1">
       <c r="A103" s="18"/>
-      <c r="B103" s="324"/>
-      <c r="C103" s="327"/>
-      <c r="D103" s="335"/>
+      <c r="B103" s="347"/>
+      <c r="C103" s="350"/>
+      <c r="D103" s="322"/>
       <c r="E103" s="202"/>
       <c r="F103" s="89"/>
       <c r="G103" s="89"/>
@@ -7163,9 +7215,9 @@
     </row>
     <row r="104" spans="1:30" ht="15.75" customHeight="1">
       <c r="A104" s="18"/>
-      <c r="B104" s="324"/>
-      <c r="C104" s="327"/>
-      <c r="D104" s="335"/>
+      <c r="B104" s="347"/>
+      <c r="C104" s="350"/>
+      <c r="D104" s="322"/>
       <c r="E104" s="202"/>
       <c r="F104" s="89"/>
       <c r="G104" s="89"/>
@@ -7195,9 +7247,9 @@
     </row>
     <row r="105" spans="1:30" ht="15.75" customHeight="1">
       <c r="A105" s="18"/>
-      <c r="B105" s="324"/>
-      <c r="C105" s="327"/>
-      <c r="D105" s="335"/>
+      <c r="B105" s="347"/>
+      <c r="C105" s="350"/>
+      <c r="D105" s="322"/>
       <c r="E105" s="202"/>
       <c r="F105" s="89"/>
       <c r="G105" s="89"/>
@@ -7227,9 +7279,9 @@
     </row>
     <row r="106" spans="1:30" ht="15.75" customHeight="1">
       <c r="A106" s="18"/>
-      <c r="B106" s="324"/>
-      <c r="C106" s="327"/>
-      <c r="D106" s="335"/>
+      <c r="B106" s="347"/>
+      <c r="C106" s="350"/>
+      <c r="D106" s="322"/>
       <c r="E106" s="202"/>
       <c r="F106" s="89"/>
       <c r="G106" s="89"/>
@@ -7259,9 +7311,9 @@
     </row>
     <row r="107" spans="1:30" ht="15.75" customHeight="1">
       <c r="A107" s="18"/>
-      <c r="B107" s="324"/>
-      <c r="C107" s="327"/>
-      <c r="D107" s="335"/>
+      <c r="B107" s="347"/>
+      <c r="C107" s="350"/>
+      <c r="D107" s="322"/>
       <c r="E107" s="202"/>
       <c r="F107" s="89"/>
       <c r="G107" s="89"/>
@@ -7291,9 +7343,9 @@
     </row>
     <row r="108" spans="1:30" ht="15.75" customHeight="1">
       <c r="A108" s="18"/>
-      <c r="B108" s="324"/>
-      <c r="C108" s="327"/>
-      <c r="D108" s="335"/>
+      <c r="B108" s="347"/>
+      <c r="C108" s="350"/>
+      <c r="D108" s="322"/>
       <c r="E108" s="202"/>
       <c r="F108" s="89"/>
       <c r="G108" s="89"/>
@@ -7323,9 +7375,9 @@
     </row>
     <row r="109" spans="1:30" ht="15.75" customHeight="1">
       <c r="A109" s="18"/>
-      <c r="B109" s="324"/>
-      <c r="C109" s="327"/>
-      <c r="D109" s="335"/>
+      <c r="B109" s="347"/>
+      <c r="C109" s="350"/>
+      <c r="D109" s="322"/>
       <c r="E109" s="202"/>
       <c r="F109" s="89"/>
       <c r="G109" s="89"/>
@@ -7355,9 +7407,9 @@
     </row>
     <row r="110" spans="1:30" ht="15.75" customHeight="1">
       <c r="A110" s="18"/>
-      <c r="B110" s="324"/>
-      <c r="C110" s="327"/>
-      <c r="D110" s="335"/>
+      <c r="B110" s="347"/>
+      <c r="C110" s="350"/>
+      <c r="D110" s="322"/>
       <c r="E110" s="202"/>
       <c r="F110" s="89"/>
       <c r="G110" s="89"/>
@@ -7387,9 +7439,9 @@
     </row>
     <row r="111" spans="1:30" ht="15.75" customHeight="1">
       <c r="A111" s="18"/>
-      <c r="B111" s="324"/>
-      <c r="C111" s="327"/>
-      <c r="D111" s="335"/>
+      <c r="B111" s="347"/>
+      <c r="C111" s="350"/>
+      <c r="D111" s="322"/>
       <c r="E111" s="202"/>
       <c r="F111" s="89"/>
       <c r="G111" s="89"/>
@@ -7419,8 +7471,8 @@
     </row>
     <row r="112" spans="1:30" ht="15.75" customHeight="1">
       <c r="A112" s="18"/>
-      <c r="B112" s="324"/>
-      <c r="C112" s="327"/>
+      <c r="B112" s="347"/>
+      <c r="C112" s="350"/>
       <c r="D112" s="152"/>
       <c r="E112" s="202"/>
       <c r="F112" s="89"/>
@@ -7451,9 +7503,9 @@
     </row>
     <row r="113" spans="1:30" ht="15.75" customHeight="1">
       <c r="A113" s="18"/>
-      <c r="B113" s="324"/>
-      <c r="C113" s="327"/>
-      <c r="D113" s="334"/>
+      <c r="B113" s="347"/>
+      <c r="C113" s="350"/>
+      <c r="D113" s="324"/>
       <c r="E113" s="202"/>
       <c r="F113" s="89"/>
       <c r="G113" s="89"/>
@@ -7483,9 +7535,9 @@
     </row>
     <row r="114" spans="1:30" ht="15.75" customHeight="1">
       <c r="A114" s="18"/>
-      <c r="B114" s="324"/>
-      <c r="C114" s="327"/>
-      <c r="D114" s="336"/>
+      <c r="B114" s="347"/>
+      <c r="C114" s="350"/>
+      <c r="D114" s="326"/>
       <c r="E114" s="202"/>
       <c r="F114" s="89"/>
       <c r="G114" s="89"/>
@@ -7515,9 +7567,9 @@
     </row>
     <row r="115" spans="1:30" ht="15.75" customHeight="1">
       <c r="A115" s="18"/>
-      <c r="B115" s="324"/>
-      <c r="C115" s="327"/>
-      <c r="D115" s="336"/>
+      <c r="B115" s="347"/>
+      <c r="C115" s="350"/>
+      <c r="D115" s="326"/>
       <c r="E115" s="202"/>
       <c r="F115" s="89"/>
       <c r="G115" s="89"/>
@@ -7547,9 +7599,9 @@
     </row>
     <row r="116" spans="1:30" ht="15.75" customHeight="1">
       <c r="A116" s="18"/>
-      <c r="B116" s="324"/>
-      <c r="C116" s="327"/>
-      <c r="D116" s="336"/>
+      <c r="B116" s="347"/>
+      <c r="C116" s="350"/>
+      <c r="D116" s="326"/>
       <c r="E116" s="202"/>
       <c r="F116" s="89"/>
       <c r="G116" s="89"/>
@@ -7579,9 +7631,9 @@
     </row>
     <row r="117" spans="1:30" ht="15.75" customHeight="1">
       <c r="A117" s="18"/>
-      <c r="B117" s="324"/>
-      <c r="C117" s="327"/>
-      <c r="D117" s="336"/>
+      <c r="B117" s="347"/>
+      <c r="C117" s="350"/>
+      <c r="D117" s="326"/>
       <c r="E117" s="202"/>
       <c r="F117" s="89"/>
       <c r="G117" s="89"/>
@@ -7611,9 +7663,9 @@
     </row>
     <row r="118" spans="1:30" ht="15.75" customHeight="1">
       <c r="A118" s="18"/>
-      <c r="B118" s="324"/>
-      <c r="C118" s="327"/>
-      <c r="D118" s="336"/>
+      <c r="B118" s="347"/>
+      <c r="C118" s="350"/>
+      <c r="D118" s="326"/>
       <c r="E118" s="202"/>
       <c r="F118" s="89"/>
       <c r="G118" s="89"/>
@@ -7643,9 +7695,9 @@
     </row>
     <row r="119" spans="1:30" ht="15.75" customHeight="1">
       <c r="A119" s="18"/>
-      <c r="B119" s="324"/>
-      <c r="C119" s="327"/>
-      <c r="D119" s="336"/>
+      <c r="B119" s="347"/>
+      <c r="C119" s="350"/>
+      <c r="D119" s="326"/>
       <c r="E119" s="202"/>
       <c r="F119" s="89"/>
       <c r="G119" s="89"/>
@@ -7675,9 +7727,9 @@
     </row>
     <row r="120" spans="1:30" ht="15.75" customHeight="1">
       <c r="A120" s="18"/>
-      <c r="B120" s="324"/>
-      <c r="C120" s="327"/>
-      <c r="D120" s="336"/>
+      <c r="B120" s="347"/>
+      <c r="C120" s="350"/>
+      <c r="D120" s="326"/>
       <c r="E120" s="256"/>
       <c r="F120" s="183"/>
       <c r="G120" s="163"/>
@@ -7707,9 +7759,9 @@
     </row>
     <row r="121" spans="1:30" ht="15.75" customHeight="1">
       <c r="A121" s="18"/>
-      <c r="B121" s="324"/>
-      <c r="C121" s="327"/>
-      <c r="D121" s="336"/>
+      <c r="B121" s="347"/>
+      <c r="C121" s="350"/>
+      <c r="D121" s="326"/>
       <c r="E121" s="260"/>
       <c r="F121" s="184"/>
       <c r="G121" s="99"/>
@@ -7739,9 +7791,9 @@
     </row>
     <row r="122" spans="1:30" ht="15.75" customHeight="1">
       <c r="A122" s="18"/>
-      <c r="B122" s="324"/>
-      <c r="C122" s="327"/>
-      <c r="D122" s="336"/>
+      <c r="B122" s="347"/>
+      <c r="C122" s="350"/>
+      <c r="D122" s="326"/>
       <c r="E122" s="260"/>
       <c r="F122" s="262"/>
       <c r="G122" s="263"/>
@@ -7771,8 +7823,8 @@
     </row>
     <row r="123" spans="1:30" ht="15.75" customHeight="1">
       <c r="A123" s="18"/>
-      <c r="B123" s="324"/>
-      <c r="C123" s="327"/>
+      <c r="B123" s="347"/>
+      <c r="C123" s="350"/>
       <c r="D123" s="152"/>
       <c r="E123" s="260"/>
       <c r="F123" s="184"/>
@@ -7803,9 +7855,9 @@
     </row>
     <row r="124" spans="1:30" ht="15.75" customHeight="1">
       <c r="A124" s="18"/>
-      <c r="B124" s="324"/>
-      <c r="C124" s="327"/>
-      <c r="D124" s="354"/>
+      <c r="B124" s="347"/>
+      <c r="C124" s="350"/>
+      <c r="D124" s="321"/>
       <c r="E124" s="260"/>
       <c r="F124" s="262"/>
       <c r="G124" s="263"/>
@@ -7835,9 +7887,9 @@
     </row>
     <row r="125" spans="1:30" ht="15.75" customHeight="1">
       <c r="A125" s="18"/>
-      <c r="B125" s="324"/>
-      <c r="C125" s="327"/>
-      <c r="D125" s="335"/>
+      <c r="B125" s="347"/>
+      <c r="C125" s="350"/>
+      <c r="D125" s="322"/>
       <c r="E125" s="260"/>
       <c r="F125" s="184"/>
       <c r="G125" s="99"/>
@@ -7867,8 +7919,8 @@
     </row>
     <row r="126" spans="1:30" ht="15.75" customHeight="1">
       <c r="A126" s="18"/>
-      <c r="B126" s="324"/>
-      <c r="C126" s="327"/>
+      <c r="B126" s="347"/>
+      <c r="C126" s="350"/>
       <c r="D126" s="145"/>
       <c r="E126" s="260"/>
       <c r="F126" s="184"/>
@@ -7899,9 +7951,9 @@
     </row>
     <row r="127" spans="1:30" ht="15.75" customHeight="1">
       <c r="A127" s="18"/>
-      <c r="B127" s="324"/>
-      <c r="C127" s="327"/>
-      <c r="D127" s="354"/>
+      <c r="B127" s="347"/>
+      <c r="C127" s="350"/>
+      <c r="D127" s="321"/>
       <c r="E127" s="260"/>
       <c r="F127" s="184"/>
       <c r="G127" s="99"/>
@@ -7931,9 +7983,9 @@
     </row>
     <row r="128" spans="1:30" ht="15.75" customHeight="1">
       <c r="A128" s="18"/>
-      <c r="B128" s="324"/>
-      <c r="C128" s="327"/>
-      <c r="D128" s="335"/>
+      <c r="B128" s="347"/>
+      <c r="C128" s="350"/>
+      <c r="D128" s="322"/>
       <c r="E128" s="260"/>
       <c r="F128" s="262"/>
       <c r="G128" s="263"/>
@@ -7963,9 +8015,9 @@
     </row>
     <row r="129" spans="1:30" ht="15.75" customHeight="1">
       <c r="A129" s="18"/>
-      <c r="B129" s="324"/>
-      <c r="C129" s="327"/>
-      <c r="D129" s="335"/>
+      <c r="B129" s="347"/>
+      <c r="C129" s="350"/>
+      <c r="D129" s="322"/>
       <c r="E129" s="260"/>
       <c r="F129" s="184"/>
       <c r="G129" s="99"/>
@@ -7995,9 +8047,9 @@
     </row>
     <row r="130" spans="1:30" ht="15.75" customHeight="1">
       <c r="A130" s="18"/>
-      <c r="B130" s="324"/>
-      <c r="C130" s="327"/>
-      <c r="D130" s="335"/>
+      <c r="B130" s="347"/>
+      <c r="C130" s="350"/>
+      <c r="D130" s="322"/>
       <c r="E130" s="260"/>
       <c r="F130" s="262"/>
       <c r="G130" s="263"/>
@@ -8027,9 +8079,9 @@
     </row>
     <row r="131" spans="1:30" ht="15.75" customHeight="1">
       <c r="A131" s="18"/>
-      <c r="B131" s="324"/>
-      <c r="C131" s="327"/>
-      <c r="D131" s="335"/>
+      <c r="B131" s="347"/>
+      <c r="C131" s="350"/>
+      <c r="D131" s="322"/>
       <c r="E131" s="260"/>
       <c r="F131" s="186"/>
       <c r="G131" s="149"/>
@@ -8059,9 +8111,9 @@
     </row>
     <row r="132" spans="1:30" ht="15.75" customHeight="1">
       <c r="A132" s="18"/>
-      <c r="B132" s="324"/>
-      <c r="C132" s="327"/>
-      <c r="D132" s="335"/>
+      <c r="B132" s="347"/>
+      <c r="C132" s="350"/>
+      <c r="D132" s="322"/>
       <c r="E132" s="260"/>
       <c r="F132" s="262"/>
       <c r="G132" s="263"/>
@@ -8091,9 +8143,9 @@
     </row>
     <row r="133" spans="1:30" ht="15.75" customHeight="1">
       <c r="A133" s="18"/>
-      <c r="B133" s="324"/>
-      <c r="C133" s="327"/>
-      <c r="D133" s="335"/>
+      <c r="B133" s="347"/>
+      <c r="C133" s="350"/>
+      <c r="D133" s="322"/>
       <c r="E133" s="260"/>
       <c r="F133" s="186"/>
       <c r="G133" s="149"/>
@@ -8123,8 +8175,8 @@
     </row>
     <row r="134" spans="1:30" ht="15.75" customHeight="1">
       <c r="A134" s="18"/>
-      <c r="B134" s="324"/>
-      <c r="C134" s="327"/>
+      <c r="B134" s="347"/>
+      <c r="C134" s="350"/>
       <c r="D134" s="149"/>
       <c r="E134" s="260"/>
       <c r="F134" s="186"/>
@@ -8155,9 +8207,9 @@
     </row>
     <row r="135" spans="1:30" ht="15.75" customHeight="1">
       <c r="A135" s="18"/>
-      <c r="B135" s="324"/>
-      <c r="C135" s="327"/>
-      <c r="D135" s="334"/>
+      <c r="B135" s="347"/>
+      <c r="C135" s="350"/>
+      <c r="D135" s="324"/>
       <c r="E135" s="260"/>
       <c r="F135" s="186"/>
       <c r="G135" s="149"/>
@@ -8187,9 +8239,9 @@
     </row>
     <row r="136" spans="1:30" ht="15.75" customHeight="1">
       <c r="A136" s="18"/>
-      <c r="B136" s="324"/>
-      <c r="C136" s="327"/>
-      <c r="D136" s="336"/>
+      <c r="B136" s="347"/>
+      <c r="C136" s="350"/>
+      <c r="D136" s="326"/>
       <c r="E136" s="260"/>
       <c r="F136" s="186"/>
       <c r="G136" s="149"/>
@@ -8219,9 +8271,9 @@
     </row>
     <row r="137" spans="1:30" ht="15.75" customHeight="1">
       <c r="A137" s="18"/>
-      <c r="B137" s="324"/>
-      <c r="C137" s="327"/>
-      <c r="D137" s="336"/>
+      <c r="B137" s="347"/>
+      <c r="C137" s="350"/>
+      <c r="D137" s="326"/>
       <c r="E137" s="260"/>
       <c r="F137" s="187"/>
       <c r="G137" s="146"/>
@@ -8251,9 +8303,9 @@
     </row>
     <row r="138" spans="1:30" ht="15.75" customHeight="1">
       <c r="A138" s="18"/>
-      <c r="B138" s="324"/>
-      <c r="C138" s="327"/>
-      <c r="D138" s="336"/>
+      <c r="B138" s="347"/>
+      <c r="C138" s="350"/>
+      <c r="D138" s="326"/>
       <c r="E138" s="260"/>
       <c r="F138" s="187"/>
       <c r="G138" s="146"/>
@@ -8283,9 +8335,9 @@
     </row>
     <row r="139" spans="1:30" ht="15.75" customHeight="1">
       <c r="A139" s="18"/>
-      <c r="B139" s="324"/>
-      <c r="C139" s="327"/>
-      <c r="D139" s="336"/>
+      <c r="B139" s="347"/>
+      <c r="C139" s="350"/>
+      <c r="D139" s="326"/>
       <c r="E139" s="260"/>
       <c r="F139" s="187"/>
       <c r="G139" s="146"/>
@@ -8315,9 +8367,9 @@
     </row>
     <row r="140" spans="1:30" ht="15.75" customHeight="1">
       <c r="A140" s="18"/>
-      <c r="B140" s="324"/>
-      <c r="C140" s="327"/>
-      <c r="D140" s="336"/>
+      <c r="B140" s="347"/>
+      <c r="C140" s="350"/>
+      <c r="D140" s="326"/>
       <c r="E140" s="260"/>
       <c r="F140" s="187"/>
       <c r="G140" s="146"/>
@@ -8347,9 +8399,9 @@
     </row>
     <row r="141" spans="1:30" ht="15.75" customHeight="1">
       <c r="A141" s="18"/>
-      <c r="B141" s="324"/>
-      <c r="C141" s="327"/>
-      <c r="D141" s="336"/>
+      <c r="B141" s="347"/>
+      <c r="C141" s="350"/>
+      <c r="D141" s="326"/>
       <c r="E141" s="260"/>
       <c r="F141" s="187"/>
       <c r="G141" s="146"/>
@@ -8379,9 +8431,9 @@
     </row>
     <row r="142" spans="1:30" ht="15.75" customHeight="1">
       <c r="A142" s="18"/>
-      <c r="B142" s="324"/>
-      <c r="C142" s="327"/>
-      <c r="D142" s="336"/>
+      <c r="B142" s="347"/>
+      <c r="C142" s="350"/>
+      <c r="D142" s="326"/>
       <c r="E142" s="260"/>
       <c r="F142" s="187"/>
       <c r="G142" s="146"/>
@@ -8411,9 +8463,9 @@
     </row>
     <row r="143" spans="1:30" ht="15.75" customHeight="1">
       <c r="A143" s="18"/>
-      <c r="B143" s="324"/>
-      <c r="C143" s="327"/>
-      <c r="D143" s="335"/>
+      <c r="B143" s="347"/>
+      <c r="C143" s="350"/>
+      <c r="D143" s="322"/>
       <c r="E143" s="260"/>
       <c r="F143" s="187"/>
       <c r="G143" s="146"/>
@@ -8443,8 +8495,8 @@
     </row>
     <row r="144" spans="1:30" ht="15.75" customHeight="1">
       <c r="A144" s="18"/>
-      <c r="B144" s="324"/>
-      <c r="C144" s="328"/>
+      <c r="B144" s="347"/>
+      <c r="C144" s="351"/>
       <c r="D144" s="175"/>
       <c r="E144" s="260"/>
       <c r="F144" s="187"/>
@@ -8475,7 +8527,7 @@
     </row>
     <row r="145" spans="1:30" ht="15.75" customHeight="1">
       <c r="A145" s="18"/>
-      <c r="B145" s="324"/>
+      <c r="B145" s="347"/>
       <c r="C145" s="282"/>
       <c r="D145" s="175"/>
       <c r="E145" s="260"/>
@@ -8507,7 +8559,7 @@
     </row>
     <row r="146" spans="1:30" ht="15.75" customHeight="1">
       <c r="A146" s="18"/>
-      <c r="B146" s="324"/>
+      <c r="B146" s="347"/>
       <c r="C146" s="282"/>
       <c r="D146" s="175"/>
       <c r="E146" s="260"/>
@@ -8539,9 +8591,9 @@
     </row>
     <row r="147" spans="1:30" ht="15.75" customHeight="1">
       <c r="A147" s="18"/>
-      <c r="B147" s="324"/>
+      <c r="B147" s="347"/>
       <c r="C147" s="282"/>
-      <c r="D147" s="334"/>
+      <c r="D147" s="324"/>
       <c r="E147" s="260"/>
       <c r="F147" s="187"/>
       <c r="G147" s="146"/>
@@ -8571,9 +8623,9 @@
     </row>
     <row r="148" spans="1:30" ht="15.75" customHeight="1">
       <c r="A148" s="18"/>
-      <c r="B148" s="324"/>
+      <c r="B148" s="347"/>
       <c r="C148" s="282"/>
-      <c r="D148" s="335"/>
+      <c r="D148" s="322"/>
       <c r="E148" s="260"/>
       <c r="F148" s="187"/>
       <c r="G148" s="146"/>
@@ -8603,7 +8655,7 @@
     </row>
     <row r="149" spans="1:30" ht="15.75" customHeight="1">
       <c r="A149" s="18"/>
-      <c r="B149" s="324"/>
+      <c r="B149" s="347"/>
       <c r="C149" s="282"/>
       <c r="D149" s="158"/>
       <c r="E149" s="260"/>
@@ -8635,7 +8687,7 @@
     </row>
     <row r="150" spans="1:30" ht="15.75" customHeight="1">
       <c r="A150" s="18"/>
-      <c r="B150" s="324"/>
+      <c r="B150" s="347"/>
       <c r="C150" s="282"/>
       <c r="D150" s="176"/>
       <c r="E150" s="260"/>
@@ -8667,7 +8719,7 @@
     </row>
     <row r="151" spans="1:30" ht="15.75" customHeight="1">
       <c r="A151" s="18"/>
-      <c r="B151" s="324"/>
+      <c r="B151" s="347"/>
       <c r="C151" s="282"/>
       <c r="D151" s="176"/>
       <c r="E151" s="260"/>
@@ -8699,7 +8751,7 @@
     </row>
     <row r="152" spans="1:30" ht="15.75" customHeight="1">
       <c r="A152" s="18"/>
-      <c r="B152" s="324"/>
+      <c r="B152" s="347"/>
       <c r="C152" s="282"/>
       <c r="D152" s="176"/>
       <c r="E152" s="204"/>
@@ -8731,7 +8783,7 @@
     </row>
     <row r="153" spans="1:30" ht="15.75" customHeight="1">
       <c r="A153" s="18"/>
-      <c r="B153" s="324"/>
+      <c r="B153" s="347"/>
       <c r="C153" s="282"/>
       <c r="D153" s="176"/>
       <c r="E153" s="205"/>
@@ -8763,7 +8815,7 @@
     </row>
     <row r="154" spans="1:30" ht="15.75" customHeight="1">
       <c r="A154" s="18"/>
-      <c r="B154" s="324"/>
+      <c r="B154" s="347"/>
       <c r="C154" s="282"/>
       <c r="D154" s="176"/>
       <c r="E154" s="204"/>
@@ -8795,7 +8847,7 @@
     </row>
     <row r="155" spans="1:30" ht="15.75" customHeight="1">
       <c r="A155" s="18"/>
-      <c r="B155" s="324"/>
+      <c r="B155" s="347"/>
       <c r="C155" s="282"/>
       <c r="D155" s="176"/>
       <c r="E155" s="204"/>
@@ -8827,7 +8879,7 @@
     </row>
     <row r="156" spans="1:30" ht="15.75" customHeight="1">
       <c r="A156" s="18"/>
-      <c r="B156" s="324"/>
+      <c r="B156" s="347"/>
       <c r="C156" s="282"/>
       <c r="D156" s="176"/>
       <c r="E156" s="204"/>
@@ -8859,7 +8911,7 @@
     </row>
     <row r="157" spans="1:30" ht="15.75" customHeight="1">
       <c r="A157" s="18"/>
-      <c r="B157" s="324"/>
+      <c r="B157" s="347"/>
       <c r="C157" s="282"/>
       <c r="D157" s="176"/>
       <c r="E157" s="204"/>
@@ -8891,7 +8943,7 @@
     </row>
     <row r="158" spans="1:30" ht="15.75" customHeight="1">
       <c r="A158" s="18"/>
-      <c r="B158" s="324"/>
+      <c r="B158" s="347"/>
       <c r="C158" s="282"/>
       <c r="D158" s="176"/>
       <c r="E158" s="205"/>
@@ -8923,7 +8975,7 @@
     </row>
     <row r="159" spans="1:30" ht="15.75" customHeight="1">
       <c r="A159" s="18"/>
-      <c r="B159" s="324"/>
+      <c r="B159" s="347"/>
       <c r="C159" s="282"/>
       <c r="D159" s="176"/>
       <c r="E159" s="205"/>
@@ -8955,7 +9007,7 @@
     </row>
     <row r="160" spans="1:30" ht="15.75" customHeight="1">
       <c r="A160" s="18"/>
-      <c r="B160" s="324"/>
+      <c r="B160" s="347"/>
       <c r="C160" s="282"/>
       <c r="D160" s="176"/>
       <c r="E160" s="205"/>
@@ -8987,7 +9039,7 @@
     </row>
     <row r="161" spans="1:30" ht="15.75" customHeight="1">
       <c r="A161" s="18"/>
-      <c r="B161" s="324"/>
+      <c r="B161" s="347"/>
       <c r="C161" s="282"/>
       <c r="D161" s="176"/>
       <c r="E161" s="204"/>
@@ -9019,7 +9071,7 @@
     </row>
     <row r="162" spans="1:30" ht="15.75" customHeight="1">
       <c r="A162" s="18"/>
-      <c r="B162" s="324"/>
+      <c r="B162" s="347"/>
       <c r="C162" s="282"/>
       <c r="D162" s="176"/>
       <c r="E162" s="204"/>
@@ -9051,7 +9103,7 @@
     </row>
     <row r="163" spans="1:30" ht="15.75" customHeight="1">
       <c r="A163" s="18"/>
-      <c r="B163" s="324"/>
+      <c r="B163" s="347"/>
       <c r="C163" s="282"/>
       <c r="D163" s="176"/>
       <c r="E163" s="204"/>
@@ -9083,7 +9135,7 @@
     </row>
     <row r="164" spans="1:30" ht="15.75" customHeight="1">
       <c r="A164" s="18"/>
-      <c r="B164" s="324"/>
+      <c r="B164" s="347"/>
       <c r="C164" s="282"/>
       <c r="D164" s="176"/>
       <c r="E164" s="204"/>
@@ -9115,7 +9167,7 @@
     </row>
     <row r="165" spans="1:30" ht="15.75" customHeight="1">
       <c r="A165" s="34"/>
-      <c r="B165" s="324"/>
+      <c r="B165" s="347"/>
       <c r="C165" s="282"/>
       <c r="D165" s="177"/>
       <c r="E165" s="204"/>
@@ -9147,7 +9199,7 @@
     </row>
     <row r="166" spans="1:30" ht="15.75" customHeight="1">
       <c r="A166" s="34"/>
-      <c r="B166" s="324"/>
+      <c r="B166" s="347"/>
       <c r="C166" s="282"/>
       <c r="D166" s="178"/>
       <c r="E166" s="204"/>
@@ -9179,7 +9231,7 @@
     </row>
     <row r="167" spans="1:30" ht="15.75" customHeight="1">
       <c r="A167" s="34"/>
-      <c r="B167" s="324"/>
+      <c r="B167" s="347"/>
       <c r="C167" s="282"/>
       <c r="D167" s="178"/>
       <c r="E167" s="206"/>
@@ -9211,7 +9263,7 @@
     </row>
     <row r="168" spans="1:30" ht="15.75" customHeight="1">
       <c r="A168" s="34"/>
-      <c r="B168" s="324"/>
+      <c r="B168" s="347"/>
       <c r="C168" s="282"/>
       <c r="D168" s="178"/>
       <c r="E168" s="204"/>
@@ -9243,7 +9295,7 @@
     </row>
     <row r="169" spans="1:30" ht="15.75" customHeight="1">
       <c r="A169" s="34"/>
-      <c r="B169" s="324"/>
+      <c r="B169" s="347"/>
       <c r="C169" s="282"/>
       <c r="D169" s="178"/>
       <c r="E169" s="204"/>
@@ -9275,7 +9327,7 @@
     </row>
     <row r="170" spans="1:30" ht="15.75" customHeight="1">
       <c r="A170" s="34"/>
-      <c r="B170" s="324"/>
+      <c r="B170" s="347"/>
       <c r="C170" s="282"/>
       <c r="D170" s="178"/>
       <c r="E170" s="204"/>
@@ -9307,7 +9359,7 @@
     </row>
     <row r="171" spans="1:30" ht="15.75" customHeight="1">
       <c r="A171" s="34"/>
-      <c r="B171" s="324"/>
+      <c r="B171" s="347"/>
       <c r="C171" s="282"/>
       <c r="D171" s="178"/>
       <c r="E171" s="267"/>
@@ -9339,7 +9391,7 @@
     </row>
     <row r="172" spans="1:30" ht="15.75" customHeight="1">
       <c r="A172" s="34"/>
-      <c r="B172" s="324"/>
+      <c r="B172" s="347"/>
       <c r="C172" s="282"/>
       <c r="D172" s="178"/>
       <c r="E172" s="267"/>
@@ -9371,7 +9423,7 @@
     </row>
     <row r="173" spans="1:30" ht="15.75" customHeight="1">
       <c r="A173" s="34"/>
-      <c r="B173" s="324"/>
+      <c r="B173" s="347"/>
       <c r="C173" s="282"/>
       <c r="D173" s="178"/>
       <c r="E173" s="267"/>
@@ -9403,7 +9455,7 @@
     </row>
     <row r="174" spans="1:30" ht="15.75" customHeight="1">
       <c r="A174" s="34"/>
-      <c r="B174" s="324"/>
+      <c r="B174" s="347"/>
       <c r="C174" s="282"/>
       <c r="D174" s="178"/>
       <c r="E174" s="267"/>
@@ -9435,7 +9487,7 @@
     </row>
     <row r="175" spans="1:30" ht="15.75" customHeight="1">
       <c r="A175" s="34"/>
-      <c r="B175" s="324"/>
+      <c r="B175" s="347"/>
       <c r="C175" s="282"/>
       <c r="D175" s="178"/>
       <c r="E175" s="204"/>
@@ -9467,7 +9519,7 @@
     </row>
     <row r="176" spans="1:30" ht="15.75" customHeight="1">
       <c r="A176" s="34"/>
-      <c r="B176" s="324"/>
+      <c r="B176" s="347"/>
       <c r="C176" s="282"/>
       <c r="D176" s="178"/>
       <c r="E176" s="204"/>
@@ -9499,7 +9551,7 @@
     </row>
     <row r="177" spans="1:30" ht="15.75" customHeight="1">
       <c r="A177" s="34"/>
-      <c r="B177" s="324"/>
+      <c r="B177" s="347"/>
       <c r="C177" s="282"/>
       <c r="D177" s="178"/>
       <c r="E177" s="204"/>
@@ -9531,7 +9583,7 @@
     </row>
     <row r="178" spans="1:30" ht="15.75" customHeight="1">
       <c r="A178" s="34"/>
-      <c r="B178" s="324"/>
+      <c r="B178" s="347"/>
       <c r="C178" s="282"/>
       <c r="D178" s="177"/>
       <c r="E178" s="204"/>
@@ -9563,7 +9615,7 @@
     </row>
     <row r="179" spans="1:30" ht="15.75" customHeight="1">
       <c r="A179" s="34"/>
-      <c r="B179" s="324"/>
+      <c r="B179" s="347"/>
       <c r="C179" s="282"/>
       <c r="D179" s="158"/>
       <c r="E179" s="206"/>
@@ -9595,9 +9647,9 @@
     </row>
     <row r="180" spans="1:30" ht="15.75" customHeight="1">
       <c r="A180" s="34"/>
-      <c r="B180" s="324"/>
+      <c r="B180" s="347"/>
       <c r="C180" s="282"/>
-      <c r="D180" s="342"/>
+      <c r="D180" s="355"/>
       <c r="E180" s="207"/>
       <c r="F180" s="187"/>
       <c r="G180" s="146"/>
@@ -9607,7 +9659,7 @@
       <c r="K180" s="90"/>
       <c r="L180" s="265"/>
       <c r="M180" s="14"/>
-      <c r="N180" s="350"/>
+      <c r="N180" s="332"/>
       <c r="O180" s="4"/>
       <c r="P180" s="4"/>
       <c r="Q180" s="4"/>
@@ -9627,9 +9679,9 @@
     </row>
     <row r="181" spans="1:30" ht="15.75" customHeight="1">
       <c r="A181" s="18"/>
-      <c r="B181" s="324"/>
+      <c r="B181" s="347"/>
       <c r="C181" s="282"/>
-      <c r="D181" s="335"/>
+      <c r="D181" s="322"/>
       <c r="E181" s="206"/>
       <c r="F181" s="187"/>
       <c r="G181" s="146"/>
@@ -9639,7 +9691,7 @@
       <c r="K181" s="90"/>
       <c r="L181" s="265"/>
       <c r="M181" s="14"/>
-      <c r="N181" s="351"/>
+      <c r="N181" s="333"/>
       <c r="O181" s="4"/>
       <c r="P181" s="4"/>
       <c r="Q181" s="4"/>
@@ -9659,9 +9711,9 @@
     </row>
     <row r="182" spans="1:30" ht="15.75" customHeight="1">
       <c r="A182" s="18"/>
-      <c r="B182" s="324"/>
+      <c r="B182" s="347"/>
       <c r="C182" s="282"/>
-      <c r="D182" s="335"/>
+      <c r="D182" s="322"/>
       <c r="E182" s="204"/>
       <c r="F182" s="187"/>
       <c r="G182" s="146"/>
@@ -9671,7 +9723,7 @@
       <c r="K182" s="90"/>
       <c r="L182" s="265"/>
       <c r="M182" s="14"/>
-      <c r="N182" s="351"/>
+      <c r="N182" s="333"/>
       <c r="O182" s="4"/>
       <c r="P182" s="4"/>
       <c r="Q182" s="4"/>
@@ -9691,9 +9743,9 @@
     </row>
     <row r="183" spans="1:30" ht="15.75" customHeight="1">
       <c r="A183" s="18"/>
-      <c r="B183" s="324"/>
+      <c r="B183" s="347"/>
       <c r="C183" s="282"/>
-      <c r="D183" s="335"/>
+      <c r="D183" s="322"/>
       <c r="E183" s="204"/>
       <c r="F183" s="187"/>
       <c r="G183" s="146"/>
@@ -9703,7 +9755,7 @@
       <c r="K183" s="90"/>
       <c r="L183" s="265"/>
       <c r="M183" s="14"/>
-      <c r="N183" s="351"/>
+      <c r="N183" s="333"/>
       <c r="O183" s="4"/>
       <c r="P183" s="4"/>
       <c r="Q183" s="4"/>
@@ -9723,9 +9775,9 @@
     </row>
     <row r="184" spans="1:30" ht="15.75" customHeight="1">
       <c r="A184" s="18"/>
-      <c r="B184" s="324"/>
+      <c r="B184" s="347"/>
       <c r="C184" s="282"/>
-      <c r="D184" s="335"/>
+      <c r="D184" s="322"/>
       <c r="E184" s="204"/>
       <c r="F184" s="187"/>
       <c r="G184" s="146"/>
@@ -9735,7 +9787,7 @@
       <c r="K184" s="90"/>
       <c r="L184" s="265"/>
       <c r="M184" s="14"/>
-      <c r="N184" s="351"/>
+      <c r="N184" s="333"/>
       <c r="O184" s="4"/>
       <c r="P184" s="4"/>
       <c r="Q184" s="4"/>
@@ -9755,9 +9807,9 @@
     </row>
     <row r="185" spans="1:30" ht="15.75" customHeight="1">
       <c r="A185" s="18"/>
-      <c r="B185" s="324"/>
+      <c r="B185" s="347"/>
       <c r="C185" s="282"/>
-      <c r="D185" s="335"/>
+      <c r="D185" s="322"/>
       <c r="E185" s="267"/>
       <c r="F185" s="187"/>
       <c r="G185" s="146"/>
@@ -9767,7 +9819,7 @@
       <c r="K185" s="90"/>
       <c r="L185" s="265"/>
       <c r="M185" s="14"/>
-      <c r="N185" s="351"/>
+      <c r="N185" s="333"/>
       <c r="O185" s="4"/>
       <c r="P185" s="4"/>
       <c r="Q185" s="4"/>
@@ -9787,9 +9839,9 @@
     </row>
     <row r="186" spans="1:30" ht="15.75" customHeight="1">
       <c r="A186" s="18"/>
-      <c r="B186" s="324"/>
+      <c r="B186" s="347"/>
       <c r="C186" s="282"/>
-      <c r="D186" s="335"/>
+      <c r="D186" s="322"/>
       <c r="E186" s="267"/>
       <c r="F186" s="187"/>
       <c r="G186" s="146"/>
@@ -9799,7 +9851,7 @@
       <c r="K186" s="90"/>
       <c r="L186" s="265"/>
       <c r="M186" s="14"/>
-      <c r="N186" s="351"/>
+      <c r="N186" s="333"/>
       <c r="O186" s="4"/>
       <c r="P186" s="4"/>
       <c r="Q186" s="4"/>
@@ -9819,9 +9871,9 @@
     </row>
     <row r="187" spans="1:30" ht="15.75" customHeight="1">
       <c r="A187" s="18"/>
-      <c r="B187" s="324"/>
+      <c r="B187" s="347"/>
       <c r="C187" s="282"/>
-      <c r="D187" s="335"/>
+      <c r="D187" s="322"/>
       <c r="E187" s="267"/>
       <c r="F187" s="187"/>
       <c r="G187" s="146"/>
@@ -9831,7 +9883,7 @@
       <c r="K187" s="90"/>
       <c r="L187" s="265"/>
       <c r="M187" s="14"/>
-      <c r="N187" s="352"/>
+      <c r="N187" s="334"/>
       <c r="O187" s="4"/>
       <c r="P187" s="4"/>
       <c r="Q187" s="4"/>
@@ -9851,9 +9903,9 @@
     </row>
     <row r="188" spans="1:30" ht="15.75" customHeight="1">
       <c r="A188" s="18"/>
-      <c r="B188" s="324"/>
+      <c r="B188" s="347"/>
       <c r="C188" s="282"/>
-      <c r="D188" s="335"/>
+      <c r="D188" s="322"/>
       <c r="E188" s="267"/>
       <c r="F188" s="187"/>
       <c r="G188" s="146"/>
@@ -9883,9 +9935,9 @@
     </row>
     <row r="189" spans="1:30" ht="15.75" customHeight="1">
       <c r="A189" s="18"/>
-      <c r="B189" s="324"/>
+      <c r="B189" s="347"/>
       <c r="C189" s="282"/>
-      <c r="D189" s="335"/>
+      <c r="D189" s="322"/>
       <c r="E189" s="204"/>
       <c r="F189" s="187"/>
       <c r="G189" s="146"/>
@@ -9915,9 +9967,9 @@
     </row>
     <row r="190" spans="1:30" ht="15.75" customHeight="1">
       <c r="A190" s="18"/>
-      <c r="B190" s="325"/>
+      <c r="B190" s="348"/>
       <c r="C190" s="282"/>
-      <c r="D190" s="335"/>
+      <c r="D190" s="322"/>
       <c r="E190" s="204"/>
       <c r="F190" s="187"/>
       <c r="G190" s="146"/>
@@ -9983,7 +10035,7 @@
       <c r="C192" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="D192" s="338"/>
+      <c r="D192" s="325"/>
       <c r="E192" s="204"/>
       <c r="F192" s="187"/>
       <c r="G192" s="146"/>
@@ -10015,7 +10067,7 @@
       <c r="A193" s="18"/>
       <c r="B193" s="14"/>
       <c r="C193" s="166"/>
-      <c r="D193" s="339"/>
+      <c r="D193" s="354"/>
       <c r="E193" s="206"/>
       <c r="F193" s="187"/>
       <c r="G193" s="146"/>
@@ -10047,7 +10099,7 @@
       <c r="A194" s="18"/>
       <c r="B194" s="14"/>
       <c r="C194" s="166"/>
-      <c r="D194" s="339"/>
+      <c r="D194" s="354"/>
       <c r="E194" s="204"/>
       <c r="F194" s="187"/>
       <c r="G194" s="146"/>
@@ -10079,7 +10131,7 @@
       <c r="A195" s="18"/>
       <c r="B195" s="14"/>
       <c r="C195" s="167"/>
-      <c r="D195" s="339"/>
+      <c r="D195" s="354"/>
       <c r="E195" s="204"/>
       <c r="F195" s="188"/>
       <c r="G195" s="150"/>
@@ -10111,7 +10163,7 @@
       <c r="A196" s="18"/>
       <c r="B196" s="16"/>
       <c r="C196" s="167"/>
-      <c r="D196" s="339"/>
+      <c r="D196" s="354"/>
       <c r="E196" s="204"/>
       <c r="F196" s="188"/>
       <c r="G196" s="150"/>
@@ -10143,7 +10195,7 @@
       <c r="A197" s="18"/>
       <c r="B197" s="16"/>
       <c r="C197" s="167"/>
-      <c r="D197" s="339"/>
+      <c r="D197" s="354"/>
       <c r="E197" s="205"/>
       <c r="F197" s="188"/>
       <c r="G197" s="150"/>
@@ -10175,7 +10227,7 @@
       <c r="A198" s="18"/>
       <c r="B198" s="16"/>
       <c r="C198" s="167"/>
-      <c r="D198" s="339"/>
+      <c r="D198" s="354"/>
       <c r="E198" s="205"/>
       <c r="F198" s="187"/>
       <c r="G198" s="146"/>
@@ -10207,7 +10259,7 @@
       <c r="A199" s="18"/>
       <c r="B199" s="16"/>
       <c r="C199" s="167"/>
-      <c r="D199" s="339"/>
+      <c r="D199" s="354"/>
       <c r="E199" s="205"/>
       <c r="F199" s="187"/>
       <c r="G199" s="146"/>
@@ -10239,7 +10291,7 @@
       <c r="A200" s="18"/>
       <c r="B200" s="16"/>
       <c r="C200" s="104"/>
-      <c r="D200" s="339"/>
+      <c r="D200" s="354"/>
       <c r="E200" s="204"/>
       <c r="F200" s="187"/>
       <c r="G200" s="146"/>
@@ -11623,8 +11675,8 @@
       <c r="I243" s="185"/>
       <c r="J243" s="92"/>
       <c r="K243" s="87"/>
-      <c r="L243" s="353"/>
-      <c r="M243" s="347"/>
+      <c r="L243" s="335"/>
+      <c r="M243" s="327"/>
       <c r="N243" s="17"/>
       <c r="O243" s="4"/>
       <c r="P243" s="4"/>
@@ -11655,8 +11707,8 @@
       <c r="I244" s="185"/>
       <c r="J244" s="92"/>
       <c r="K244" s="93"/>
-      <c r="L244" s="344"/>
-      <c r="M244" s="344"/>
+      <c r="L244" s="328"/>
+      <c r="M244" s="328"/>
       <c r="N244" s="17"/>
       <c r="O244" s="4"/>
       <c r="P244" s="4"/>
@@ -11687,8 +11739,8 @@
       <c r="I245" s="185"/>
       <c r="J245" s="92"/>
       <c r="K245" s="96"/>
-      <c r="L245" s="330"/>
-      <c r="M245" s="330"/>
+      <c r="L245" s="329"/>
+      <c r="M245" s="329"/>
       <c r="N245" s="17"/>
       <c r="O245" s="4"/>
       <c r="P245" s="4"/>
@@ -11902,7 +11954,7 @@
     <row r="252" spans="1:30" ht="15.75" customHeight="1">
       <c r="A252" s="18"/>
       <c r="B252" s="19"/>
-      <c r="C252" s="340"/>
+      <c r="C252" s="336"/>
       <c r="D252" s="158"/>
       <c r="E252" s="203"/>
       <c r="F252" s="185"/>
@@ -11934,7 +11986,7 @@
     <row r="253" spans="1:30" ht="15.75" customHeight="1">
       <c r="A253" s="18"/>
       <c r="B253" s="19"/>
-      <c r="C253" s="337"/>
+      <c r="C253" s="342"/>
       <c r="D253" s="158"/>
       <c r="E253" s="203"/>
       <c r="F253" s="97"/>
@@ -11966,9 +12018,9 @@
     <row r="254" spans="1:30" ht="15.75" customHeight="1">
       <c r="A254" s="18"/>
       <c r="B254" s="19"/>
-      <c r="C254" s="337"/>
+      <c r="C254" s="342"/>
       <c r="D254" s="158"/>
-      <c r="E254" s="331"/>
+      <c r="E254" s="353"/>
       <c r="F254" s="97"/>
       <c r="G254" s="148"/>
       <c r="H254" s="91"/>
@@ -11998,9 +12050,9 @@
     <row r="255" spans="1:30" ht="15.75" customHeight="1">
       <c r="A255" s="18"/>
       <c r="B255" s="19"/>
-      <c r="C255" s="337"/>
+      <c r="C255" s="342"/>
       <c r="D255" s="158"/>
-      <c r="E255" s="332"/>
+      <c r="E255" s="340"/>
       <c r="F255" s="185"/>
       <c r="G255" s="147"/>
       <c r="H255" s="115"/>
@@ -12030,9 +12082,9 @@
     <row r="256" spans="1:30" ht="15.75" customHeight="1">
       <c r="A256" s="18"/>
       <c r="B256" s="19"/>
-      <c r="C256" s="337"/>
+      <c r="C256" s="342"/>
       <c r="D256" s="158"/>
-      <c r="E256" s="333"/>
+      <c r="E256" s="341"/>
       <c r="F256" s="185"/>
       <c r="G256" s="147"/>
       <c r="H256" s="115"/>
@@ -12062,7 +12114,7 @@
     <row r="257" spans="1:30" ht="15.75" customHeight="1">
       <c r="A257" s="18"/>
       <c r="B257" s="19"/>
-      <c r="C257" s="337"/>
+      <c r="C257" s="342"/>
       <c r="D257" s="158"/>
       <c r="E257" s="203"/>
       <c r="F257" s="185"/>
@@ -12094,7 +12146,7 @@
     <row r="258" spans="1:30" ht="15.75" customHeight="1">
       <c r="A258" s="18"/>
       <c r="B258" s="19"/>
-      <c r="C258" s="321"/>
+      <c r="C258" s="337"/>
       <c r="D258" s="158"/>
       <c r="E258" s="203"/>
       <c r="F258" s="185"/>
@@ -12126,7 +12178,7 @@
     <row r="259" spans="1:30" ht="15.75" customHeight="1">
       <c r="A259" s="18"/>
       <c r="B259" s="19"/>
-      <c r="C259" s="320"/>
+      <c r="C259" s="344"/>
       <c r="D259" s="150"/>
       <c r="E259" s="203"/>
       <c r="F259" s="185"/>
@@ -12158,7 +12210,7 @@
     <row r="260" spans="1:30" ht="15.75" customHeight="1">
       <c r="A260" s="18"/>
       <c r="B260" s="19"/>
-      <c r="C260" s="321"/>
+      <c r="C260" s="337"/>
       <c r="D260" s="150"/>
       <c r="E260" s="203"/>
       <c r="F260" s="185"/>
@@ -12222,7 +12274,7 @@
     <row r="262" spans="1:30" ht="30" customHeight="1">
       <c r="A262" s="18"/>
       <c r="B262" s="19"/>
-      <c r="C262" s="320"/>
+      <c r="C262" s="344"/>
       <c r="D262" s="150"/>
       <c r="E262" s="203"/>
       <c r="F262" s="185"/>
@@ -12254,7 +12306,7 @@
     <row r="263" spans="1:30" ht="15.75" customHeight="1">
       <c r="A263" s="18"/>
       <c r="B263" s="19"/>
-      <c r="C263" s="337"/>
+      <c r="C263" s="342"/>
       <c r="D263" s="150"/>
       <c r="E263" s="203"/>
       <c r="F263" s="185"/>
@@ -12286,7 +12338,7 @@
     <row r="264" spans="1:30" ht="15.75" customHeight="1">
       <c r="A264" s="18"/>
       <c r="B264" s="19"/>
-      <c r="C264" s="337"/>
+      <c r="C264" s="342"/>
       <c r="D264" s="150"/>
       <c r="E264" s="203"/>
       <c r="F264" s="185"/>
@@ -12318,7 +12370,7 @@
     <row r="265" spans="1:30" ht="15.75" customHeight="1">
       <c r="A265" s="18"/>
       <c r="B265" s="19"/>
-      <c r="C265" s="337"/>
+      <c r="C265" s="342"/>
       <c r="D265" s="150"/>
       <c r="E265" s="203"/>
       <c r="F265" s="185"/>
@@ -12350,7 +12402,7 @@
     <row r="266" spans="1:30" ht="15.75" customHeight="1">
       <c r="A266" s="18"/>
       <c r="B266" s="19"/>
-      <c r="C266" s="321"/>
+      <c r="C266" s="337"/>
       <c r="D266" s="150"/>
       <c r="E266" s="203"/>
       <c r="F266" s="195"/>
@@ -12743,7 +12795,7 @@
       <c r="I278" s="223"/>
       <c r="J278" s="141"/>
       <c r="K278" s="130"/>
-      <c r="L278" s="329"/>
+      <c r="L278" s="352"/>
       <c r="M278" s="16"/>
       <c r="N278" s="31"/>
       <c r="O278" s="4"/>
@@ -12775,7 +12827,7 @@
       <c r="I279" s="223"/>
       <c r="J279" s="141"/>
       <c r="K279" s="130"/>
-      <c r="L279" s="330"/>
+      <c r="L279" s="329"/>
       <c r="M279" s="16"/>
       <c r="N279" s="31"/>
       <c r="O279" s="4"/>
@@ -12862,7 +12914,7 @@
     <row r="282" spans="1:30" ht="15.75" customHeight="1">
       <c r="A282" s="18"/>
       <c r="B282" s="19"/>
-      <c r="C282" s="320"/>
+      <c r="C282" s="344"/>
       <c r="D282" s="150"/>
       <c r="E282" s="203"/>
       <c r="F282" s="185"/>
@@ -12871,7 +12923,7 @@
       <c r="I282" s="223"/>
       <c r="J282" s="141"/>
       <c r="K282" s="130"/>
-      <c r="L282" s="353"/>
+      <c r="L282" s="335"/>
       <c r="M282" s="16"/>
       <c r="N282" s="31"/>
       <c r="O282" s="4"/>
@@ -12894,7 +12946,7 @@
     <row r="283" spans="1:30" ht="15.75" customHeight="1">
       <c r="A283" s="18"/>
       <c r="B283" s="19"/>
-      <c r="C283" s="321"/>
+      <c r="C283" s="337"/>
       <c r="D283" s="150"/>
       <c r="E283" s="203"/>
       <c r="F283" s="185"/>
@@ -12903,7 +12955,7 @@
       <c r="I283" s="223"/>
       <c r="J283" s="141"/>
       <c r="K283" s="130"/>
-      <c r="L283" s="330"/>
+      <c r="L283" s="329"/>
       <c r="M283" s="16"/>
       <c r="N283" s="31"/>
       <c r="O283" s="4"/>
@@ -12926,7 +12978,7 @@
     <row r="284" spans="1:30" ht="15.75" customHeight="1">
       <c r="A284" s="18"/>
       <c r="B284" s="19"/>
-      <c r="C284" s="340"/>
+      <c r="C284" s="336"/>
       <c r="D284" s="158"/>
       <c r="E284" s="203"/>
       <c r="F284" s="188"/>
@@ -12958,7 +13010,7 @@
     <row r="285" spans="1:30" ht="15.75" customHeight="1">
       <c r="A285" s="18"/>
       <c r="B285" s="19"/>
-      <c r="C285" s="321"/>
+      <c r="C285" s="337"/>
       <c r="D285" s="158"/>
       <c r="E285" s="203"/>
       <c r="F285" s="188"/>
@@ -13022,7 +13074,7 @@
     <row r="287" spans="1:30" ht="15.75" customHeight="1">
       <c r="A287" s="18"/>
       <c r="B287" s="19"/>
-      <c r="C287" s="320"/>
+      <c r="C287" s="344"/>
       <c r="D287" s="150"/>
       <c r="E287" s="205"/>
       <c r="F287" s="188"/>
@@ -13054,7 +13106,7 @@
     <row r="288" spans="1:30" ht="15.75" customHeight="1">
       <c r="A288" s="18"/>
       <c r="B288" s="19"/>
-      <c r="C288" s="337"/>
+      <c r="C288" s="342"/>
       <c r="D288" s="150"/>
       <c r="E288" s="205"/>
       <c r="F288" s="188"/>
@@ -13086,7 +13138,7 @@
     <row r="289" spans="1:30" ht="15.75" customHeight="1">
       <c r="A289" s="18"/>
       <c r="B289" s="19"/>
-      <c r="C289" s="321"/>
+      <c r="C289" s="337"/>
       <c r="D289" s="150"/>
       <c r="E289" s="205"/>
       <c r="F289" s="188"/>
@@ -13277,8 +13329,8 @@
     </row>
     <row r="295" spans="1:30" ht="15.75" customHeight="1">
       <c r="A295" s="21"/>
-      <c r="B295" s="343"/>
-      <c r="C295" s="340"/>
+      <c r="B295" s="338"/>
+      <c r="C295" s="336"/>
       <c r="D295" s="158"/>
       <c r="E295" s="205"/>
       <c r="F295" s="197"/>
@@ -13309,8 +13361,8 @@
     </row>
     <row r="296" spans="1:30" ht="15.75" customHeight="1">
       <c r="A296" s="21"/>
-      <c r="B296" s="344"/>
-      <c r="C296" s="337"/>
+      <c r="B296" s="328"/>
+      <c r="C296" s="342"/>
       <c r="D296" s="158"/>
       <c r="E296" s="205"/>
       <c r="F296" s="97"/>
@@ -13341,10 +13393,10 @@
     </row>
     <row r="297" spans="1:30" ht="15.75" customHeight="1">
       <c r="A297" s="21"/>
-      <c r="B297" s="344"/>
-      <c r="C297" s="337"/>
+      <c r="B297" s="328"/>
+      <c r="C297" s="342"/>
       <c r="D297" s="158"/>
-      <c r="E297" s="345"/>
+      <c r="E297" s="339"/>
       <c r="F297" s="97"/>
       <c r="G297" s="148"/>
       <c r="H297" s="91"/>
@@ -13373,10 +13425,10 @@
     </row>
     <row r="298" spans="1:30" ht="15.75" customHeight="1">
       <c r="A298" s="21"/>
-      <c r="B298" s="344"/>
-      <c r="C298" s="337"/>
+      <c r="B298" s="328"/>
+      <c r="C298" s="342"/>
       <c r="D298" s="158"/>
-      <c r="E298" s="332"/>
+      <c r="E298" s="340"/>
       <c r="F298" s="97"/>
       <c r="G298" s="148"/>
       <c r="H298" s="91"/>
@@ -13405,10 +13457,10 @@
     </row>
     <row r="299" spans="1:30" ht="15.75" customHeight="1">
       <c r="A299" s="21"/>
-      <c r="B299" s="344"/>
-      <c r="C299" s="337"/>
+      <c r="B299" s="328"/>
+      <c r="C299" s="342"/>
       <c r="D299" s="158"/>
-      <c r="E299" s="332"/>
+      <c r="E299" s="340"/>
       <c r="F299" s="97"/>
       <c r="G299" s="148"/>
       <c r="H299" s="91"/>
@@ -13437,10 +13489,10 @@
     </row>
     <row r="300" spans="1:30" ht="15.75" customHeight="1">
       <c r="A300" s="21"/>
-      <c r="B300" s="344"/>
-      <c r="C300" s="337"/>
+      <c r="B300" s="328"/>
+      <c r="C300" s="342"/>
       <c r="D300" s="158"/>
-      <c r="E300" s="332"/>
+      <c r="E300" s="340"/>
       <c r="F300" s="97"/>
       <c r="G300" s="148"/>
       <c r="H300" s="91"/>
@@ -13469,10 +13521,10 @@
     </row>
     <row r="301" spans="1:30" ht="15.75" customHeight="1">
       <c r="A301" s="21"/>
-      <c r="B301" s="344"/>
-      <c r="C301" s="337"/>
+      <c r="B301" s="328"/>
+      <c r="C301" s="342"/>
       <c r="D301" s="158"/>
-      <c r="E301" s="332"/>
+      <c r="E301" s="340"/>
       <c r="F301" s="97"/>
       <c r="G301" s="148"/>
       <c r="H301" s="91"/>
@@ -13501,10 +13553,10 @@
     </row>
     <row r="302" spans="1:30" ht="15.75" customHeight="1">
       <c r="A302" s="21"/>
-      <c r="B302" s="344"/>
-      <c r="C302" s="337"/>
+      <c r="B302" s="328"/>
+      <c r="C302" s="342"/>
       <c r="D302" s="158"/>
-      <c r="E302" s="332"/>
+      <c r="E302" s="340"/>
       <c r="F302" s="97"/>
       <c r="G302" s="148"/>
       <c r="H302" s="91"/>
@@ -13533,10 +13585,10 @@
     </row>
     <row r="303" spans="1:30" ht="15.75" customHeight="1">
       <c r="A303" s="21"/>
-      <c r="B303" s="344"/>
-      <c r="C303" s="337"/>
+      <c r="B303" s="328"/>
+      <c r="C303" s="342"/>
       <c r="D303" s="158"/>
-      <c r="E303" s="332"/>
+      <c r="E303" s="340"/>
       <c r="F303" s="198"/>
       <c r="G303" s="159"/>
       <c r="H303" s="95"/>
@@ -13565,10 +13617,10 @@
     </row>
     <row r="304" spans="1:30" ht="15.75" customHeight="1">
       <c r="A304" s="21"/>
-      <c r="B304" s="344"/>
-      <c r="C304" s="337"/>
+      <c r="B304" s="328"/>
+      <c r="C304" s="342"/>
       <c r="D304" s="158"/>
-      <c r="E304" s="333"/>
+      <c r="E304" s="341"/>
       <c r="F304" s="198"/>
       <c r="G304" s="159"/>
       <c r="H304" s="95"/>
@@ -13597,8 +13649,8 @@
     </row>
     <row r="305" spans="1:30" ht="15.75" customHeight="1">
       <c r="A305" s="21"/>
-      <c r="B305" s="344"/>
-      <c r="C305" s="337"/>
+      <c r="B305" s="328"/>
+      <c r="C305" s="342"/>
       <c r="D305" s="158"/>
       <c r="E305" s="216"/>
       <c r="F305" s="197"/>
@@ -13629,8 +13681,8 @@
     </row>
     <row r="306" spans="1:30" ht="15.75" customHeight="1">
       <c r="A306" s="21"/>
-      <c r="B306" s="344"/>
-      <c r="C306" s="337"/>
+      <c r="B306" s="328"/>
+      <c r="C306" s="342"/>
       <c r="D306" s="158"/>
       <c r="E306" s="216"/>
       <c r="F306" s="97"/>
@@ -13661,10 +13713,10 @@
     </row>
     <row r="307" spans="1:30" ht="15.75" customHeight="1">
       <c r="A307" s="21"/>
-      <c r="B307" s="344"/>
-      <c r="C307" s="337"/>
+      <c r="B307" s="328"/>
+      <c r="C307" s="342"/>
       <c r="D307" s="158"/>
-      <c r="E307" s="345"/>
+      <c r="E307" s="339"/>
       <c r="F307" s="97"/>
       <c r="G307" s="148"/>
       <c r="H307" s="91"/>
@@ -13693,10 +13745,10 @@
     </row>
     <row r="308" spans="1:30" ht="15.75" customHeight="1">
       <c r="A308" s="21"/>
-      <c r="B308" s="344"/>
-      <c r="C308" s="321"/>
+      <c r="B308" s="328"/>
+      <c r="C308" s="337"/>
       <c r="D308" s="158"/>
-      <c r="E308" s="332"/>
+      <c r="E308" s="340"/>
       <c r="F308" s="97"/>
       <c r="G308" s="148"/>
       <c r="H308" s="91"/>
@@ -13725,10 +13777,10 @@
     </row>
     <row r="309" spans="1:30" ht="15.75" customHeight="1">
       <c r="A309" s="21"/>
-      <c r="B309" s="344"/>
+      <c r="B309" s="328"/>
       <c r="C309" s="167"/>
       <c r="D309" s="158"/>
-      <c r="E309" s="332"/>
+      <c r="E309" s="340"/>
       <c r="F309" s="197"/>
       <c r="G309" s="158"/>
       <c r="H309" s="127"/>
@@ -13757,10 +13809,10 @@
     </row>
     <row r="310" spans="1:30" ht="15.75" customHeight="1">
       <c r="A310" s="21"/>
-      <c r="B310" s="344"/>
-      <c r="C310" s="340"/>
+      <c r="B310" s="328"/>
+      <c r="C310" s="336"/>
       <c r="D310" s="158"/>
-      <c r="E310" s="333"/>
+      <c r="E310" s="341"/>
       <c r="F310" s="191"/>
       <c r="G310" s="152"/>
       <c r="H310" s="121"/>
@@ -13789,8 +13841,8 @@
     </row>
     <row r="311" spans="1:30" ht="15.75" customHeight="1">
       <c r="A311" s="21"/>
-      <c r="B311" s="344"/>
-      <c r="C311" s="337"/>
+      <c r="B311" s="328"/>
+      <c r="C311" s="342"/>
       <c r="D311" s="158"/>
       <c r="E311" s="217"/>
       <c r="F311" s="97"/>
@@ -13821,10 +13873,10 @@
     </row>
     <row r="312" spans="1:30" ht="15.75" customHeight="1">
       <c r="A312" s="21"/>
-      <c r="B312" s="344"/>
-      <c r="C312" s="337"/>
+      <c r="B312" s="328"/>
+      <c r="C312" s="342"/>
       <c r="D312" s="158"/>
-      <c r="E312" s="346"/>
+      <c r="E312" s="343"/>
       <c r="F312" s="191"/>
       <c r="G312" s="152"/>
       <c r="H312" s="121"/>
@@ -13853,10 +13905,10 @@
     </row>
     <row r="313" spans="1:30" ht="15.75" customHeight="1">
       <c r="A313" s="21"/>
-      <c r="B313" s="344"/>
-      <c r="C313" s="321"/>
+      <c r="B313" s="328"/>
+      <c r="C313" s="337"/>
       <c r="D313" s="158"/>
-      <c r="E313" s="333"/>
+      <c r="E313" s="341"/>
       <c r="F313" s="97"/>
       <c r="G313" s="148"/>
       <c r="H313" s="91"/>
@@ -13885,10 +13937,10 @@
     </row>
     <row r="314" spans="1:30" ht="15.75" customHeight="1">
       <c r="A314" s="21"/>
-      <c r="B314" s="344"/>
+      <c r="B314" s="328"/>
       <c r="C314" s="104"/>
       <c r="D314" s="159"/>
-      <c r="E314" s="346"/>
+      <c r="E314" s="343"/>
       <c r="F314" s="192"/>
       <c r="G314" s="153"/>
       <c r="H314" s="122"/>
@@ -13917,10 +13969,10 @@
     </row>
     <row r="315" spans="1:30" ht="15.75" customHeight="1">
       <c r="A315" s="21"/>
-      <c r="B315" s="344"/>
-      <c r="C315" s="340"/>
+      <c r="B315" s="328"/>
+      <c r="C315" s="336"/>
       <c r="D315" s="158"/>
-      <c r="E315" s="333"/>
+      <c r="E315" s="341"/>
       <c r="F315" s="197"/>
       <c r="G315" s="158"/>
       <c r="H315" s="127"/>
@@ -13949,8 +14001,8 @@
     </row>
     <row r="316" spans="1:30" ht="15.75" customHeight="1">
       <c r="A316" s="21"/>
-      <c r="B316" s="344"/>
-      <c r="C316" s="337"/>
+      <c r="B316" s="328"/>
+      <c r="C316" s="342"/>
       <c r="D316" s="158"/>
       <c r="E316" s="209"/>
       <c r="F316" s="97"/>
@@ -13981,10 +14033,10 @@
     </row>
     <row r="317" spans="1:30" ht="15.75" customHeight="1">
       <c r="A317" s="21"/>
-      <c r="B317" s="344"/>
-      <c r="C317" s="337"/>
+      <c r="B317" s="328"/>
+      <c r="C317" s="342"/>
       <c r="D317" s="158"/>
-      <c r="E317" s="345"/>
+      <c r="E317" s="339"/>
       <c r="F317" s="97"/>
       <c r="G317" s="148"/>
       <c r="H317" s="91"/>
@@ -14013,10 +14065,10 @@
     </row>
     <row r="318" spans="1:30" ht="15.75" customHeight="1">
       <c r="A318" s="21"/>
-      <c r="B318" s="344"/>
-      <c r="C318" s="337"/>
+      <c r="B318" s="328"/>
+      <c r="C318" s="342"/>
       <c r="D318" s="158"/>
-      <c r="E318" s="332"/>
+      <c r="E318" s="340"/>
       <c r="F318" s="97"/>
       <c r="G318" s="148"/>
       <c r="H318" s="91"/>
@@ -14045,10 +14097,10 @@
     </row>
     <row r="319" spans="1:30" ht="15.75" customHeight="1">
       <c r="A319" s="21"/>
-      <c r="B319" s="344"/>
-      <c r="C319" s="337"/>
+      <c r="B319" s="328"/>
+      <c r="C319" s="342"/>
       <c r="D319" s="158"/>
-      <c r="E319" s="332"/>
+      <c r="E319" s="340"/>
       <c r="F319" s="97"/>
       <c r="G319" s="148"/>
       <c r="H319" s="91"/>
@@ -14077,10 +14129,10 @@
     </row>
     <row r="320" spans="1:30" ht="15.75" customHeight="1">
       <c r="A320" s="21"/>
-      <c r="B320" s="344"/>
-      <c r="C320" s="337"/>
+      <c r="B320" s="328"/>
+      <c r="C320" s="342"/>
       <c r="D320" s="158"/>
-      <c r="E320" s="332"/>
+      <c r="E320" s="340"/>
       <c r="F320" s="97"/>
       <c r="G320" s="148"/>
       <c r="H320" s="91"/>
@@ -14109,10 +14161,10 @@
     </row>
     <row r="321" spans="1:30" ht="15.75" customHeight="1">
       <c r="A321" s="21"/>
-      <c r="B321" s="344"/>
-      <c r="C321" s="337"/>
+      <c r="B321" s="328"/>
+      <c r="C321" s="342"/>
       <c r="D321" s="158"/>
-      <c r="E321" s="332"/>
+      <c r="E321" s="340"/>
       <c r="F321" s="197"/>
       <c r="G321" s="158"/>
       <c r="H321" s="127"/>
@@ -14141,10 +14193,10 @@
     </row>
     <row r="322" spans="1:30" ht="15.75" customHeight="1">
       <c r="A322" s="21"/>
-      <c r="B322" s="344"/>
-      <c r="C322" s="337"/>
+      <c r="B322" s="328"/>
+      <c r="C322" s="342"/>
       <c r="D322" s="158"/>
-      <c r="E322" s="333"/>
+      <c r="E322" s="341"/>
       <c r="F322" s="97"/>
       <c r="G322" s="148"/>
       <c r="H322" s="91"/>
@@ -14173,10 +14225,10 @@
     </row>
     <row r="323" spans="1:30" ht="15.75" customHeight="1">
       <c r="A323" s="21"/>
-      <c r="B323" s="344"/>
-      <c r="C323" s="337"/>
+      <c r="B323" s="328"/>
+      <c r="C323" s="342"/>
       <c r="D323" s="158"/>
-      <c r="E323" s="345"/>
+      <c r="E323" s="339"/>
       <c r="F323" s="97"/>
       <c r="G323" s="148"/>
       <c r="H323" s="91"/>
@@ -14205,10 +14257,10 @@
     </row>
     <row r="324" spans="1:30" ht="15.75" customHeight="1">
       <c r="A324" s="21"/>
-      <c r="B324" s="330"/>
-      <c r="C324" s="321"/>
+      <c r="B324" s="329"/>
+      <c r="C324" s="337"/>
       <c r="D324" s="158"/>
-      <c r="E324" s="332"/>
+      <c r="E324" s="340"/>
       <c r="F324" s="97"/>
       <c r="G324" s="148"/>
       <c r="H324" s="91"/>
@@ -14240,7 +14292,7 @@
       <c r="B325" s="21"/>
       <c r="C325" s="103"/>
       <c r="D325" s="153"/>
-      <c r="E325" s="332"/>
+      <c r="E325" s="340"/>
       <c r="F325" s="192"/>
       <c r="G325" s="153"/>
       <c r="H325" s="122"/>
@@ -14272,7 +14324,7 @@
       <c r="B326" s="21"/>
       <c r="C326" s="103"/>
       <c r="D326" s="153"/>
-      <c r="E326" s="333"/>
+      <c r="E326" s="341"/>
       <c r="F326" s="192"/>
       <c r="G326" s="153"/>
       <c r="H326" s="122"/>
@@ -16419,29 +16471,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D8:D47"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D101:D111"/>
-    <mergeCell ref="D135:D143"/>
-    <mergeCell ref="D127:D133"/>
-    <mergeCell ref="M243:M245"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="N180:N187"/>
-    <mergeCell ref="L243:L245"/>
-    <mergeCell ref="L282:L283"/>
-    <mergeCell ref="C284:C285"/>
-    <mergeCell ref="B295:B324"/>
-    <mergeCell ref="E317:E322"/>
-    <mergeCell ref="E323:E326"/>
-    <mergeCell ref="C315:C324"/>
-    <mergeCell ref="C310:C313"/>
-    <mergeCell ref="E312:E313"/>
-    <mergeCell ref="E314:E315"/>
-    <mergeCell ref="E297:E304"/>
-    <mergeCell ref="E307:E310"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="C295:C308"/>
     <mergeCell ref="C282:C283"/>
     <mergeCell ref="B8:B190"/>
     <mergeCell ref="C48:C144"/>
@@ -16458,6 +16487,29 @@
     <mergeCell ref="C8:C47"/>
     <mergeCell ref="D48:D65"/>
     <mergeCell ref="D180:D190"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="B295:B324"/>
+    <mergeCell ref="E317:E322"/>
+    <mergeCell ref="E323:E326"/>
+    <mergeCell ref="C315:C324"/>
+    <mergeCell ref="C310:C313"/>
+    <mergeCell ref="E312:E313"/>
+    <mergeCell ref="E314:E315"/>
+    <mergeCell ref="E297:E304"/>
+    <mergeCell ref="E307:E310"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="C295:C308"/>
+    <mergeCell ref="M243:M245"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="N180:N187"/>
+    <mergeCell ref="L243:L245"/>
+    <mergeCell ref="L282:L283"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D8:D47"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D101:D111"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="D127:D133"/>
   </mergeCells>
   <conditionalFormatting sqref="L226:L231 L233:L234 L271 L285:L294 M120:M392 M8:M65">
     <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
@@ -16487,9 +16539,32 @@
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1" xr:uid="{DF5DD339-A7C7-47B5-B3EF-04A73FBFBC4F}"/>
     <hyperlink ref="G22" r:id="rId2" xr:uid="{5FAE525A-B6B8-4583-A56B-C48A31C2E06E}"/>
+    <hyperlink ref="K8" r:id="rId3" xr:uid="{0B5B2436-17FD-4066-BCC7-D972A965B7FD}"/>
+    <hyperlink ref="K9" r:id="rId4" xr:uid="{6FB4AD65-B061-4744-84CC-FEBA6C1B1D2D}"/>
+    <hyperlink ref="K10" r:id="rId5" xr:uid="{8E1AC1D3-CE22-4B08-A28C-47964EB9E871}"/>
+    <hyperlink ref="K11" r:id="rId6" xr:uid="{D19F95F3-6808-485F-AC7C-0C2F720B3B21}"/>
+    <hyperlink ref="K12" r:id="rId7" xr:uid="{5065EC7C-6016-4040-9174-5FC93262156A}"/>
+    <hyperlink ref="K13" r:id="rId8" xr:uid="{B26814C4-2382-4C6A-B994-8AEAB6E79003}"/>
+    <hyperlink ref="K14" r:id="rId9" xr:uid="{2BA2A41F-6702-41E4-A0DC-F24C08CDFCFC}"/>
+    <hyperlink ref="K15" r:id="rId10" xr:uid="{E0A747BE-BE81-4ED8-B5E3-DAFA24AABF72}"/>
+    <hyperlink ref="K16" r:id="rId11" tooltip="Click here" xr:uid="{E7F2AEE8-6C92-40C9-82C3-9A5EA7D80ED2}"/>
+    <hyperlink ref="K17" r:id="rId12" xr:uid="{D5339A91-6FB8-49B5-9AD8-6266C543C4B9}"/>
+    <hyperlink ref="K18" r:id="rId13" xr:uid="{EB122B96-4F53-4953-8929-AE6CE6C0132F}"/>
+    <hyperlink ref="K19" r:id="rId14" xr:uid="{2A4FB8BA-B8DC-40A1-A080-E95559E181A5}"/>
+    <hyperlink ref="K20" r:id="rId15" xr:uid="{0E3D41C3-1729-498D-989E-C651B35B884D}"/>
+    <hyperlink ref="K21" r:id="rId16" xr:uid="{525CF818-D661-4A87-B384-0D010C805277}"/>
+    <hyperlink ref="K22" r:id="rId17" xr:uid="{9FD410C8-4A4E-43CD-A615-FAC5194217A0}"/>
+    <hyperlink ref="K23" r:id="rId18" xr:uid="{17E786EE-DD09-4BA5-9FD0-BC88DD092EA3}"/>
+    <hyperlink ref="K24" r:id="rId19" xr:uid="{33DEEF08-04F0-4256-90FD-C49A9989C1C5}"/>
+    <hyperlink ref="K25" r:id="rId20" xr:uid="{7376B631-3A38-4ACF-A396-49F5E040BF81}"/>
+    <hyperlink ref="K26" r:id="rId21" xr:uid="{9CF7DDA8-6D04-45FD-8B95-9478E595E8E1}"/>
+    <hyperlink ref="K27" r:id="rId22" xr:uid="{FFEDEA45-F7C7-4DEC-AFBF-5D51EADB4F14}"/>
+    <hyperlink ref="K28" r:id="rId23" xr:uid="{839226F9-2026-476C-A76F-13BDD8E53425}"/>
+    <hyperlink ref="K29" r:id="rId24" xr:uid="{52F40090-9377-4B06-8515-03ECF47A1DE8}"/>
+    <hyperlink ref="K30" r:id="rId25" xr:uid="{394995D8-C70C-43CE-86A1-EF27EF32BD7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -16523,39 +16598,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="368" t="s">
+      <c r="B4" s="372" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="369"/>
-      <c r="D4" s="369"/>
-      <c r="E4" s="369"/>
-      <c r="F4" s="369"/>
-      <c r="G4" s="370"/>
+      <c r="C4" s="373"/>
+      <c r="D4" s="373"/>
+      <c r="E4" s="373"/>
+      <c r="F4" s="373"/>
+      <c r="G4" s="374"/>
       <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="357" t="s">
+      <c r="C5" s="375" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="358"/>
-      <c r="E5" s="358"/>
-      <c r="F5" s="358"/>
-      <c r="G5" s="359"/>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="376"/>
+      <c r="G5" s="377"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="357" t="s">
+      <c r="C6" s="375" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="358"/>
-      <c r="E6" s="358"/>
-      <c r="F6" s="358"/>
-      <c r="G6" s="359"/>
+      <c r="D6" s="376"/>
+      <c r="E6" s="376"/>
+      <c r="F6" s="376"/>
+      <c r="G6" s="377"/>
       <c r="I6" s="57" t="s">
         <v>21</v>
       </c>
@@ -16570,14 +16645,14 @@
       <c r="B7" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="357" t="e">
+      <c r="C7" s="375" t="e">
         <f>-C8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="358"/>
-      <c r="E7" s="358"/>
-      <c r="F7" s="358"/>
-      <c r="G7" s="359"/>
+      <c r="D7" s="376"/>
+      <c r="E7" s="376"/>
+      <c r="F7" s="376"/>
+      <c r="G7" s="377"/>
       <c r="I7" s="59">
         <f>C15</f>
         <v>13</v>
@@ -16592,13 +16667,13 @@
       <c r="B8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="357" t="s">
+      <c r="C8" s="375" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="358"/>
-      <c r="E8" s="358"/>
-      <c r="F8" s="358"/>
-      <c r="G8" s="359"/>
+      <c r="D8" s="376"/>
+      <c r="E8" s="376"/>
+      <c r="F8" s="376"/>
+      <c r="G8" s="377"/>
       <c r="I8" s="59">
         <f>D15</f>
         <v>10</v>
@@ -16613,13 +16688,13 @@
       <c r="B9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="357" t="s">
+      <c r="C9" s="375" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="358"/>
-      <c r="E9" s="358"/>
-      <c r="F9" s="358"/>
-      <c r="G9" s="359"/>
+      <c r="D9" s="376"/>
+      <c r="E9" s="376"/>
+      <c r="F9" s="376"/>
+      <c r="G9" s="377"/>
       <c r="I9" s="59">
         <f>E15</f>
         <v>0</v>
@@ -16643,13 +16718,13 @@
       <c r="B10" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="357" t="s">
+      <c r="C10" s="375" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="358"/>
-      <c r="E10" s="358"/>
-      <c r="F10" s="358"/>
-      <c r="G10" s="359"/>
+      <c r="D10" s="376"/>
+      <c r="E10" s="376"/>
+      <c r="F10" s="376"/>
+      <c r="G10" s="377"/>
       <c r="I10" s="59">
         <f>F15</f>
         <v>0</v>
@@ -16668,22 +16743,22 @@
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="360" t="s">
+      <c r="B11" s="380" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="361"/>
-      <c r="D11" s="361"/>
-      <c r="E11" s="361"/>
-      <c r="F11" s="361"/>
-      <c r="G11" s="362"/>
+      <c r="C11" s="381"/>
+      <c r="D11" s="381"/>
+      <c r="E11" s="381"/>
+      <c r="F11" s="381"/>
+      <c r="G11" s="382"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="363"/>
-      <c r="C12" s="364"/>
-      <c r="D12" s="364"/>
-      <c r="E12" s="364"/>
-      <c r="F12" s="364"/>
-      <c r="G12" s="365"/>
+      <c r="B12" s="362"/>
+      <c r="C12" s="363"/>
+      <c r="D12" s="363"/>
+      <c r="E12" s="363"/>
+      <c r="F12" s="363"/>
+      <c r="G12" s="364"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="65" t="s">
@@ -16818,21 +16893,21 @@
       <c r="R17" s="68"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="366" t="s">
+      <c r="B18" s="383" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="356"/>
-      <c r="D18" s="356"/>
-      <c r="E18" s="356"/>
-      <c r="F18" s="356"/>
-      <c r="G18" s="349"/>
+      <c r="C18" s="379"/>
+      <c r="D18" s="379"/>
+      <c r="E18" s="379"/>
+      <c r="F18" s="379"/>
+      <c r="G18" s="331"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="367" t="s">
+      <c r="B19" s="384" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="356"/>
-      <c r="D19" s="349"/>
+      <c r="C19" s="379"/>
+      <c r="D19" s="331"/>
       <c r="E19" s="83"/>
       <c r="F19" s="83" t="s">
         <v>41</v>
@@ -16842,11 +16917,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="355" t="s">
+      <c r="B20" s="378" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="356"/>
-      <c r="D20" s="349"/>
+      <c r="C20" s="379"/>
+      <c r="D20" s="331"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
         <v>44</v>
@@ -16856,11 +16931,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="355" t="s">
+      <c r="B21" s="378" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="356"/>
-      <c r="D21" s="349"/>
+      <c r="C21" s="379"/>
+      <c r="D21" s="331"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84" t="s">
         <v>44</v>
@@ -16871,264 +16946,264 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="383"/>
-      <c r="C23" s="381" t="s">
+      <c r="B23" s="369"/>
+      <c r="C23" s="365" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="382" t="s">
+      <c r="D23" s="368" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="376"/>
-      <c r="F23" s="376"/>
-      <c r="G23" s="377"/>
+      <c r="E23" s="357"/>
+      <c r="F23" s="357"/>
+      <c r="G23" s="358"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="372"/>
-      <c r="C24" s="372"/>
-      <c r="D24" s="378"/>
-      <c r="E24" s="379"/>
-      <c r="F24" s="379"/>
-      <c r="G24" s="380"/>
+      <c r="B24" s="366"/>
+      <c r="C24" s="366"/>
+      <c r="D24" s="359"/>
+      <c r="E24" s="360"/>
+      <c r="F24" s="360"/>
+      <c r="G24" s="361"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="372"/>
-      <c r="C25" s="372"/>
-      <c r="D25" s="378"/>
-      <c r="E25" s="379"/>
-      <c r="F25" s="379"/>
-      <c r="G25" s="380"/>
+      <c r="B25" s="366"/>
+      <c r="C25" s="366"/>
+      <c r="D25" s="359"/>
+      <c r="E25" s="360"/>
+      <c r="F25" s="360"/>
+      <c r="G25" s="361"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="373"/>
-      <c r="C26" s="373"/>
-      <c r="D26" s="363"/>
-      <c r="E26" s="364"/>
-      <c r="F26" s="364"/>
-      <c r="G26" s="365"/>
+      <c r="B26" s="367"/>
+      <c r="C26" s="367"/>
+      <c r="D26" s="362"/>
+      <c r="E26" s="363"/>
+      <c r="F26" s="363"/>
+      <c r="G26" s="364"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="371"/>
-      <c r="C27" s="374"/>
-      <c r="D27" s="375"/>
-      <c r="E27" s="376"/>
-      <c r="F27" s="376"/>
-      <c r="G27" s="377"/>
+      <c r="B27" s="370"/>
+      <c r="C27" s="371"/>
+      <c r="D27" s="356"/>
+      <c r="E27" s="357"/>
+      <c r="F27" s="357"/>
+      <c r="G27" s="358"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="372"/>
-      <c r="C28" s="372"/>
-      <c r="D28" s="378"/>
-      <c r="E28" s="379"/>
-      <c r="F28" s="379"/>
-      <c r="G28" s="380"/>
+      <c r="B28" s="366"/>
+      <c r="C28" s="366"/>
+      <c r="D28" s="359"/>
+      <c r="E28" s="360"/>
+      <c r="F28" s="360"/>
+      <c r="G28" s="361"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="372"/>
-      <c r="C29" s="372"/>
-      <c r="D29" s="378"/>
-      <c r="E29" s="379"/>
-      <c r="F29" s="379"/>
-      <c r="G29" s="380"/>
+      <c r="B29" s="366"/>
+      <c r="C29" s="366"/>
+      <c r="D29" s="359"/>
+      <c r="E29" s="360"/>
+      <c r="F29" s="360"/>
+      <c r="G29" s="361"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="373"/>
-      <c r="C30" s="373"/>
-      <c r="D30" s="363"/>
-      <c r="E30" s="364"/>
-      <c r="F30" s="364"/>
-      <c r="G30" s="365"/>
+      <c r="B30" s="367"/>
+      <c r="C30" s="367"/>
+      <c r="D30" s="362"/>
+      <c r="E30" s="363"/>
+      <c r="F30" s="363"/>
+      <c r="G30" s="364"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="371"/>
-      <c r="C31" s="374"/>
-      <c r="D31" s="375"/>
-      <c r="E31" s="376"/>
-      <c r="F31" s="376"/>
-      <c r="G31" s="377"/>
+      <c r="B31" s="370"/>
+      <c r="C31" s="371"/>
+      <c r="D31" s="356"/>
+      <c r="E31" s="357"/>
+      <c r="F31" s="357"/>
+      <c r="G31" s="358"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="372"/>
-      <c r="C32" s="372"/>
-      <c r="D32" s="378"/>
-      <c r="E32" s="379"/>
-      <c r="F32" s="379"/>
-      <c r="G32" s="380"/>
+      <c r="B32" s="366"/>
+      <c r="C32" s="366"/>
+      <c r="D32" s="359"/>
+      <c r="E32" s="360"/>
+      <c r="F32" s="360"/>
+      <c r="G32" s="361"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="372"/>
-      <c r="C33" s="372"/>
-      <c r="D33" s="378"/>
-      <c r="E33" s="379"/>
-      <c r="F33" s="379"/>
-      <c r="G33" s="380"/>
+      <c r="B33" s="366"/>
+      <c r="C33" s="366"/>
+      <c r="D33" s="359"/>
+      <c r="E33" s="360"/>
+      <c r="F33" s="360"/>
+      <c r="G33" s="361"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="373"/>
-      <c r="C34" s="373"/>
-      <c r="D34" s="363"/>
-      <c r="E34" s="364"/>
-      <c r="F34" s="364"/>
-      <c r="G34" s="365"/>
+      <c r="B34" s="367"/>
+      <c r="C34" s="367"/>
+      <c r="D34" s="362"/>
+      <c r="E34" s="363"/>
+      <c r="F34" s="363"/>
+      <c r="G34" s="364"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="371"/>
-      <c r="C35" s="374"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="376"/>
-      <c r="F35" s="376"/>
-      <c r="G35" s="377"/>
+      <c r="B35" s="370"/>
+      <c r="C35" s="371"/>
+      <c r="D35" s="356"/>
+      <c r="E35" s="357"/>
+      <c r="F35" s="357"/>
+      <c r="G35" s="358"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="372"/>
-      <c r="C36" s="372"/>
-      <c r="D36" s="378"/>
-      <c r="E36" s="379"/>
-      <c r="F36" s="379"/>
-      <c r="G36" s="380"/>
+      <c r="B36" s="366"/>
+      <c r="C36" s="366"/>
+      <c r="D36" s="359"/>
+      <c r="E36" s="360"/>
+      <c r="F36" s="360"/>
+      <c r="G36" s="361"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="372"/>
-      <c r="C37" s="372"/>
-      <c r="D37" s="378"/>
-      <c r="E37" s="379"/>
-      <c r="F37" s="379"/>
-      <c r="G37" s="380"/>
+      <c r="B37" s="366"/>
+      <c r="C37" s="366"/>
+      <c r="D37" s="359"/>
+      <c r="E37" s="360"/>
+      <c r="F37" s="360"/>
+      <c r="G37" s="361"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="373"/>
-      <c r="C38" s="373"/>
-      <c r="D38" s="363"/>
-      <c r="E38" s="364"/>
-      <c r="F38" s="364"/>
-      <c r="G38" s="365"/>
+      <c r="B38" s="367"/>
+      <c r="C38" s="367"/>
+      <c r="D38" s="362"/>
+      <c r="E38" s="363"/>
+      <c r="F38" s="363"/>
+      <c r="G38" s="364"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="371"/>
-      <c r="C39" s="374"/>
-      <c r="D39" s="375"/>
-      <c r="E39" s="376"/>
-      <c r="F39" s="376"/>
-      <c r="G39" s="377"/>
+      <c r="B39" s="370"/>
+      <c r="C39" s="371"/>
+      <c r="D39" s="356"/>
+      <c r="E39" s="357"/>
+      <c r="F39" s="357"/>
+      <c r="G39" s="358"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="372"/>
-      <c r="C40" s="372"/>
-      <c r="D40" s="378"/>
-      <c r="E40" s="379"/>
-      <c r="F40" s="379"/>
-      <c r="G40" s="380"/>
+      <c r="B40" s="366"/>
+      <c r="C40" s="366"/>
+      <c r="D40" s="359"/>
+      <c r="E40" s="360"/>
+      <c r="F40" s="360"/>
+      <c r="G40" s="361"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="372"/>
-      <c r="C41" s="372"/>
-      <c r="D41" s="378"/>
-      <c r="E41" s="379"/>
-      <c r="F41" s="379"/>
-      <c r="G41" s="380"/>
+      <c r="B41" s="366"/>
+      <c r="C41" s="366"/>
+      <c r="D41" s="359"/>
+      <c r="E41" s="360"/>
+      <c r="F41" s="360"/>
+      <c r="G41" s="361"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="373"/>
-      <c r="C42" s="373"/>
-      <c r="D42" s="363"/>
-      <c r="E42" s="364"/>
-      <c r="F42" s="364"/>
-      <c r="G42" s="365"/>
+      <c r="B42" s="367"/>
+      <c r="C42" s="367"/>
+      <c r="D42" s="362"/>
+      <c r="E42" s="363"/>
+      <c r="F42" s="363"/>
+      <c r="G42" s="364"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="371"/>
-      <c r="C43" s="374"/>
-      <c r="D43" s="375"/>
-      <c r="E43" s="376"/>
-      <c r="F43" s="376"/>
-      <c r="G43" s="377"/>
+      <c r="B43" s="370"/>
+      <c r="C43" s="371"/>
+      <c r="D43" s="356"/>
+      <c r="E43" s="357"/>
+      <c r="F43" s="357"/>
+      <c r="G43" s="358"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="372"/>
-      <c r="C44" s="372"/>
-      <c r="D44" s="378"/>
-      <c r="E44" s="379"/>
-      <c r="F44" s="379"/>
-      <c r="G44" s="380"/>
+      <c r="B44" s="366"/>
+      <c r="C44" s="366"/>
+      <c r="D44" s="359"/>
+      <c r="E44" s="360"/>
+      <c r="F44" s="360"/>
+      <c r="G44" s="361"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="372"/>
-      <c r="C45" s="372"/>
-      <c r="D45" s="378"/>
-      <c r="E45" s="379"/>
-      <c r="F45" s="379"/>
-      <c r="G45" s="380"/>
+      <c r="B45" s="366"/>
+      <c r="C45" s="366"/>
+      <c r="D45" s="359"/>
+      <c r="E45" s="360"/>
+      <c r="F45" s="360"/>
+      <c r="G45" s="361"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="373"/>
-      <c r="C46" s="373"/>
-      <c r="D46" s="363"/>
-      <c r="E46" s="364"/>
-      <c r="F46" s="364"/>
-      <c r="G46" s="365"/>
+      <c r="B46" s="367"/>
+      <c r="C46" s="367"/>
+      <c r="D46" s="362"/>
+      <c r="E46" s="363"/>
+      <c r="F46" s="363"/>
+      <c r="G46" s="364"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="371"/>
-      <c r="C47" s="374"/>
-      <c r="D47" s="375"/>
-      <c r="E47" s="376"/>
-      <c r="F47" s="376"/>
-      <c r="G47" s="377"/>
+      <c r="B47" s="370"/>
+      <c r="C47" s="371"/>
+      <c r="D47" s="356"/>
+      <c r="E47" s="357"/>
+      <c r="F47" s="357"/>
+      <c r="G47" s="358"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="372"/>
-      <c r="C48" s="372"/>
-      <c r="D48" s="378"/>
-      <c r="E48" s="379"/>
-      <c r="F48" s="379"/>
-      <c r="G48" s="380"/>
+      <c r="B48" s="366"/>
+      <c r="C48" s="366"/>
+      <c r="D48" s="359"/>
+      <c r="E48" s="360"/>
+      <c r="F48" s="360"/>
+      <c r="G48" s="361"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="372"/>
-      <c r="C49" s="372"/>
-      <c r="D49" s="378"/>
-      <c r="E49" s="379"/>
-      <c r="F49" s="379"/>
-      <c r="G49" s="380"/>
+      <c r="B49" s="366"/>
+      <c r="C49" s="366"/>
+      <c r="D49" s="359"/>
+      <c r="E49" s="360"/>
+      <c r="F49" s="360"/>
+      <c r="G49" s="361"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B50" s="373"/>
-      <c r="C50" s="373"/>
-      <c r="D50" s="363"/>
-      <c r="E50" s="364"/>
-      <c r="F50" s="364"/>
-      <c r="G50" s="365"/>
+      <c r="B50" s="367"/>
+      <c r="C50" s="367"/>
+      <c r="D50" s="362"/>
+      <c r="E50" s="363"/>
+      <c r="F50" s="363"/>
+      <c r="G50" s="364"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="371"/>
-      <c r="C51" s="374"/>
-      <c r="D51" s="375"/>
-      <c r="E51" s="376"/>
-      <c r="F51" s="376"/>
-      <c r="G51" s="377"/>
+      <c r="B51" s="370"/>
+      <c r="C51" s="371"/>
+      <c r="D51" s="356"/>
+      <c r="E51" s="357"/>
+      <c r="F51" s="357"/>
+      <c r="G51" s="358"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="372"/>
-      <c r="C52" s="372"/>
-      <c r="D52" s="378"/>
-      <c r="E52" s="379"/>
-      <c r="F52" s="379"/>
-      <c r="G52" s="380"/>
+      <c r="B52" s="366"/>
+      <c r="C52" s="366"/>
+      <c r="D52" s="359"/>
+      <c r="E52" s="360"/>
+      <c r="F52" s="360"/>
+      <c r="G52" s="361"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="372"/>
-      <c r="C53" s="372"/>
-      <c r="D53" s="378"/>
-      <c r="E53" s="379"/>
-      <c r="F53" s="379"/>
-      <c r="G53" s="380"/>
+      <c r="B53" s="366"/>
+      <c r="C53" s="366"/>
+      <c r="D53" s="359"/>
+      <c r="E53" s="360"/>
+      <c r="F53" s="360"/>
+      <c r="G53" s="361"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1">
-      <c r="B54" s="373"/>
-      <c r="C54" s="373"/>
-      <c r="D54" s="363"/>
-      <c r="E54" s="364"/>
-      <c r="F54" s="364"/>
-      <c r="G54" s="365"/>
+      <c r="B54" s="367"/>
+      <c r="C54" s="367"/>
+      <c r="D54" s="362"/>
+      <c r="E54" s="363"/>
+      <c r="F54" s="363"/>
+      <c r="G54" s="364"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -17329,15 +17404,18 @@
     <row r="251" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="C47:C50"/>
@@ -17353,18 +17431,15 @@
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="D43:G46"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
